--- a/databases/xlsx/import_all/import 21.04.xlsx
+++ b/databases/xlsx/import_all/import 21.04.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="525">
   <si>
     <t xml:space="preserve">Организация</t>
   </si>
@@ -1278,7 +1278,7 @@
     <t xml:space="preserve">ДНС("Крымский берег" ООО)</t>
   </si>
   <si>
-    <t xml:space="preserve">07747</t>
+    <t xml:space="preserve">00747</t>
   </si>
   <si>
     <t xml:space="preserve">DNS (оранжевая зона)</t>
@@ -1690,7 +1690,7 @@
     <t xml:space="preserve">Катков В.А. ИП</t>
   </si>
   <si>
-    <t xml:space="preserve">20776</t>
+    <t xml:space="preserve">20766</t>
   </si>
   <si>
     <t xml:space="preserve">Островки Крым золото (напротив GoErgo)</t>
@@ -1760,6 +1760,9 @@
   </si>
   <si>
     <t xml:space="preserve">Золото России (напротив Кари)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103095569</t>
   </si>
   <si>
     <t xml:space="preserve">Крым Золото (напротив Кари)</t>
@@ -2427,11 +2430,12 @@
     <numFmt numFmtId="169" formatCode="#,##0.00&quot;р.&quot;"/>
     <numFmt numFmtId="170" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2480,6 +2484,7 @@
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -2487,12 +2492,6 @@
       <name val="Arial Cyr"/>
       <family val="0"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="20"/>
@@ -2778,7 +2777,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="102">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2835,11 +2834,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2856,10 +2851,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2883,131 +2874,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3015,15 +2918,103 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3031,7 +3022,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3047,11 +3038,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3067,7 +3058,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3083,99 +3074,99 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="11" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="27" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="27" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="170" fontId="26" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3187,11 +3178,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3276,20 +3267,20 @@
   <dimension ref="A1:AB441"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G205" activeCellId="0" sqref="G205:G206"/>
+      <selection pane="bottomLeft" activeCell="E131" activeCellId="0" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="94.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="137.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="45.72"/>
   </cols>
@@ -3361,7 +3352,7 @@
       <c r="H2" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J2" s="8"/>
@@ -3385,7 +3376,7 @@
       <c r="AB2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="10" t="n">
@@ -3394,7 +3385,7 @@
       <c r="C3" s="10" t="n">
         <v>70886</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -3428,7 +3419,7 @@
       <c r="AB3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="10" t="n">
@@ -3437,7 +3428,7 @@
       <c r="C4" s="10" t="n">
         <v>10103</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -3471,16 +3462,16 @@
       <c r="AB4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="18" t="n">
+      <c r="B5" s="17" t="n">
         <v>24150</v>
       </c>
-      <c r="C5" s="18" t="n">
+      <c r="C5" s="17" t="n">
         <v>24750</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="18" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -3490,7 +3481,7 @@
         <v>19</v>
       </c>
       <c r="G5" s="13"/>
-      <c r="H5" s="20" t="n">
+      <c r="H5" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I5" s="8"/>
@@ -3515,7 +3506,7 @@
       <c r="AB5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="10" t="n">
@@ -3524,7 +3515,7 @@
       <c r="C6" s="10" t="n">
         <v>88928</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -3534,7 +3525,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="13"/>
-      <c r="H6" s="20" t="n">
+      <c r="H6" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I6" s="8"/>
@@ -3559,7 +3550,7 @@
       <c r="AB6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="10" t="n">
@@ -3568,7 +3559,7 @@
       <c r="C7" s="10" t="n">
         <v>218963</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -3578,7 +3569,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="20" t="n">
+      <c r="H7" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I7" s="8"/>
@@ -3603,7 +3594,7 @@
       <c r="AB7" s="8"/>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="10" t="n">
@@ -3612,7 +3603,7 @@
       <c r="C8" s="10" t="n">
         <v>35420</v>
       </c>
-      <c r="D8" s="17" t="n">
+      <c r="D8" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -3622,7 +3613,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="20" t="n">
+      <c r="H8" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I8" s="8"/>
@@ -3656,7 +3647,7 @@
       <c r="C9" s="10" t="n">
         <v>26830</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="11" t="n">
@@ -3666,7 +3657,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="20" t="n">
+      <c r="H9" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I9" s="8"/>
@@ -3691,16 +3682,16 @@
       <c r="AB9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="22" t="n">
+      <c r="B10" s="20" t="n">
         <v>64996.614</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="20" t="n">
         <v>65420.884</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="21" t="n">
         <v>40</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -3710,7 +3701,7 @@
         <v>32</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="20" t="n">
+      <c r="H10" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I10" s="8"/>
@@ -3735,7 +3726,7 @@
       <c r="AB10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B11" s="10" t="n">
@@ -3744,7 +3735,7 @@
       <c r="C11" s="10" t="n">
         <v>1920</v>
       </c>
-      <c r="D11" s="17" t="n">
+      <c r="D11" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -3754,7 +3745,7 @@
         <v>35</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="20" t="n">
+      <c r="H11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I11" s="8"/>
@@ -3779,7 +3770,7 @@
       <c r="AB11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B12" s="10" t="n">
@@ -3788,19 +3779,19 @@
       <c r="C12" s="10" t="n">
         <v>33564</v>
       </c>
-      <c r="D12" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="26" t="s">
+      <c r="D12" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20" t="n">
+      <c r="G12" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I12" s="8"/>
@@ -3825,28 +3816,28 @@
       <c r="AB12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="29" t="n">
+      <c r="B13" s="27" t="n">
         <v>37544.6</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="27" t="n">
         <v>37738.5</v>
       </c>
-      <c r="D13" s="30" t="n">
+      <c r="D13" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20" t="n">
+      <c r="G13" s="26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I13" s="8"/>
@@ -3871,26 +3862,26 @@
       <c r="AB13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="33" t="n">
+      <c r="B14" s="31" t="n">
         <v>513</v>
       </c>
-      <c r="C14" s="33" t="n">
+      <c r="C14" s="31" t="n">
         <v>2933</v>
       </c>
-      <c r="D14" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="31" t="s">
+      <c r="D14" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="25" t="s">
         <v>43</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="20" t="n">
+      <c r="H14" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I14" s="8"/>
@@ -3915,26 +3906,26 @@
       <c r="AB14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="36" t="n">
+      <c r="B15" s="34" t="n">
         <v>9005</v>
       </c>
-      <c r="C15" s="36" t="n">
+      <c r="C15" s="34" t="n">
         <v>9605</v>
       </c>
-      <c r="D15" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="31" t="s">
+      <c r="D15" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="20" t="n">
+      <c r="H15" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I15" s="8"/>
@@ -3959,26 +3950,26 @@
       <c r="AB15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="36" t="n">
+      <c r="B16" s="34" t="n">
         <v>5126</v>
       </c>
-      <c r="C16" s="36" t="n">
+      <c r="C16" s="34" t="n">
         <v>5714</v>
       </c>
-      <c r="D16" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="31" t="n">
+      <c r="D16" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>70373</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="25" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="20" t="n">
+      <c r="H16" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I16" s="8"/>
@@ -4003,26 +3994,26 @@
       <c r="AB16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="36" t="n">
+      <c r="B17" s="34" t="n">
         <v>10490</v>
       </c>
-      <c r="C17" s="36" t="n">
+      <c r="C17" s="34" t="n">
         <v>11255</v>
       </c>
-      <c r="D17" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="31" t="n">
+      <c r="D17" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>99648</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="25" t="s">
         <v>50</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="20" t="n">
+      <c r="H17" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I17" s="8"/>
@@ -4047,26 +4038,26 @@
       <c r="AB17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="36" t="n">
+      <c r="B18" s="34" t="n">
         <v>35969</v>
       </c>
-      <c r="C18" s="36" t="n">
+      <c r="C18" s="34" t="n">
         <v>36624</v>
       </c>
-      <c r="D18" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="31" t="n">
+      <c r="D18" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>98600</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="20" t="n">
+      <c r="H18" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I18" s="8"/>
@@ -4091,26 +4082,26 @@
       <c r="AB18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="36" t="n">
+      <c r="B19" s="34" t="n">
         <v>87449</v>
       </c>
-      <c r="C19" s="36" t="n">
+      <c r="C19" s="34" t="n">
         <v>87860</v>
       </c>
-      <c r="D19" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="31" t="n">
+      <c r="D19" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>98517</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="25" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="20" t="n">
+      <c r="H19" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I19" s="8"/>
@@ -4135,26 +4126,26 @@
       <c r="AB19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="36" t="n">
+      <c r="B20" s="34" t="n">
         <v>47274</v>
       </c>
-      <c r="C20" s="36" t="n">
+      <c r="C20" s="34" t="n">
         <v>48050</v>
       </c>
-      <c r="D20" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="31" t="n">
+      <c r="D20" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>98627</v>
       </c>
-      <c r="F20" s="27" t="s">
+      <c r="F20" s="25" t="s">
         <v>56</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="20" t="n">
+      <c r="H20" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I20" s="8"/>
@@ -4179,26 +4170,26 @@
       <c r="AB20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38" t="s">
+      <c r="A21" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="36" t="n">
+      <c r="B21" s="34" t="n">
         <v>74475</v>
       </c>
-      <c r="C21" s="36" t="n">
+      <c r="C21" s="34" t="n">
         <v>74711</v>
       </c>
-      <c r="D21" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="31" t="n">
+      <c r="D21" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>98556</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="25" t="s">
         <v>58</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="20" t="n">
+      <c r="H21" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I21" s="8"/>
@@ -4223,26 +4214,26 @@
       <c r="AB21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="36" t="n">
+      <c r="B22" s="34" t="n">
         <v>72188</v>
       </c>
-      <c r="C22" s="36" t="n">
+      <c r="C22" s="34" t="n">
         <v>72574</v>
       </c>
-      <c r="D22" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31" t="n">
+      <c r="D22" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>98503</v>
       </c>
-      <c r="F22" s="27" t="s">
+      <c r="F22" s="25" t="s">
         <v>60</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="20" t="n">
+      <c r="H22" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I22" s="8"/>
@@ -4267,28 +4258,28 @@
       <c r="AB22" s="8"/>
     </row>
     <row r="23" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="36" t="n">
+      <c r="B23" s="34" t="n">
         <v>84426</v>
       </c>
-      <c r="C23" s="36" t="n">
+      <c r="C23" s="34" t="n">
         <v>85111</v>
       </c>
-      <c r="D23" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="31" t="n">
+      <c r="D23" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>98630</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="28" t="n">
+      <c r="G23" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="H23" s="20" t="n">
+      <c r="H23" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I23" s="8"/>
@@ -4313,28 +4304,28 @@
       <c r="AB23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="36" t="n">
+      <c r="B24" s="34" t="n">
         <v>77026</v>
       </c>
-      <c r="C24" s="36" t="n">
+      <c r="C24" s="34" t="n">
         <v>77630</v>
       </c>
-      <c r="D24" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="31" t="s">
+      <c r="D24" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="28" t="n">
+      <c r="G24" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="H24" s="20" t="n">
+      <c r="H24" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I24" s="8"/>
@@ -4359,26 +4350,26 @@
       <c r="AB24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="36" t="n">
+      <c r="B25" s="34" t="n">
         <v>19403</v>
       </c>
-      <c r="C25" s="36" t="n">
+      <c r="C25" s="34" t="n">
         <v>19403</v>
       </c>
-      <c r="D25" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="31" t="n">
+      <c r="D25" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>8726</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="25" t="s">
         <v>66</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="20" t="n">
+      <c r="H25" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I25" s="8"/>
@@ -4403,26 +4394,26 @@
       <c r="AB25" s="8"/>
     </row>
     <row r="26" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="36" t="n">
+      <c r="B26" s="34" t="n">
         <v>135161</v>
       </c>
-      <c r="C26" s="36" t="n">
+      <c r="C26" s="34" t="n">
         <v>136468</v>
       </c>
-      <c r="D26" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="31" t="n">
+      <c r="D26" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>542003</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="25" t="s">
         <v>68</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="20" t="n">
+      <c r="H26" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I26" s="8"/>
@@ -4447,26 +4438,26 @@
       <c r="AB26" s="8"/>
     </row>
     <row r="27" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="35" t="s">
+      <c r="A27" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="36" t="n">
+      <c r="B27" s="34" t="n">
         <v>44327</v>
       </c>
-      <c r="C27" s="36" t="n">
+      <c r="C27" s="34" t="n">
         <v>44647</v>
       </c>
-      <c r="D27" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="31" t="n">
+      <c r="D27" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>100986</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="25" t="s">
         <v>70</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="20" t="n">
+      <c r="H27" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I27" s="8"/>
@@ -4491,26 +4482,26 @@
       <c r="AB27" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="36" t="n">
+      <c r="B28" s="34" t="n">
         <v>97009</v>
       </c>
-      <c r="C28" s="36" t="n">
+      <c r="C28" s="34" t="n">
         <v>97510</v>
       </c>
-      <c r="D28" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="31" t="n">
+      <c r="D28" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>70386</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="25" t="s">
         <v>72</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="20" t="n">
+      <c r="H28" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I28" s="8"/>
@@ -4535,26 +4526,26 @@
       <c r="AB28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="35" t="s">
+      <c r="A29" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="36" t="n">
+      <c r="B29" s="34" t="n">
         <v>57257</v>
       </c>
-      <c r="C29" s="36" t="n">
+      <c r="C29" s="34" t="n">
         <v>57703</v>
       </c>
-      <c r="D29" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="31" t="n">
+      <c r="D29" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>64591</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="25" t="s">
         <v>74</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="20" t="n">
+      <c r="H29" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I29" s="8"/>
@@ -4579,26 +4570,26 @@
       <c r="AB29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="36" t="n">
+      <c r="B30" s="34" t="n">
         <v>40362</v>
       </c>
-      <c r="C30" s="36" t="n">
+      <c r="C30" s="34" t="n">
         <v>42176</v>
       </c>
-      <c r="D30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="31" t="n">
+      <c r="D30" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>87125</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="25" t="s">
         <v>76</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="20" t="n">
+      <c r="H30" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I30" s="8"/>
@@ -4623,26 +4614,26 @@
       <c r="AB30" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="36" t="n">
+      <c r="B31" s="34" t="n">
         <v>75932</v>
       </c>
-      <c r="C31" s="36" t="n">
+      <c r="C31" s="34" t="n">
         <v>76884</v>
       </c>
-      <c r="D31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="31" t="n">
+      <c r="D31" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>87202</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="25" t="s">
         <v>78</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="20" t="n">
+      <c r="H31" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I31" s="8"/>
@@ -4667,26 +4658,26 @@
       <c r="AB31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="36" t="n">
+      <c r="B32" s="34" t="n">
         <v>33340</v>
       </c>
-      <c r="C32" s="36" t="n">
+      <c r="C32" s="34" t="n">
         <v>33589</v>
       </c>
-      <c r="D32" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="31" t="n">
+      <c r="D32" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>99475</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="25" t="s">
         <v>80</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="20" t="n">
+      <c r="H32" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I32" s="8"/>
@@ -4711,28 +4702,28 @@
       <c r="AB32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="36" t="n">
+      <c r="B33" s="34" t="n">
         <v>57312</v>
       </c>
-      <c r="C33" s="36" t="n">
+      <c r="C33" s="34" t="n">
         <v>57599</v>
       </c>
-      <c r="D33" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="31" t="n">
+      <c r="D33" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>100985</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G33" s="28" t="n">
+      <c r="G33" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="H33" s="20" t="n">
+      <c r="H33" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I33" s="8"/>
@@ -4757,28 +4748,28 @@
       <c r="AB33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="35" t="s">
+      <c r="A34" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="36" t="n">
+      <c r="B34" s="34" t="n">
         <v>32989</v>
       </c>
-      <c r="C34" s="36" t="n">
+      <c r="C34" s="34" t="n">
         <v>33117</v>
       </c>
-      <c r="D34" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="31" t="n">
+      <c r="D34" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>100839</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="G34" s="28" t="n">
+      <c r="G34" s="26" t="n">
         <v>3</v>
       </c>
-      <c r="H34" s="20" t="n">
+      <c r="H34" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I34" s="8"/>
@@ -4803,26 +4794,26 @@
       <c r="AB34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="36" t="n">
+      <c r="B35" s="34" t="n">
         <v>23586</v>
       </c>
-      <c r="C35" s="36" t="n">
+      <c r="C35" s="34" t="n">
         <v>23719</v>
       </c>
-      <c r="D35" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="31" t="n">
+      <c r="D35" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>100976</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="25" t="s">
         <v>84</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="20" t="n">
+      <c r="H35" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I35" s="8"/>
@@ -4847,28 +4838,28 @@
       <c r="AB35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="36" t="n">
+      <c r="B36" s="34" t="n">
         <v>41236</v>
       </c>
-      <c r="C36" s="36" t="n">
+      <c r="C36" s="34" t="n">
         <v>41446</v>
       </c>
-      <c r="D36" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="31" t="n">
+      <c r="D36" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>99491</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="28" t="n">
+      <c r="G36" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="H36" s="20" t="n">
+      <c r="H36" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I36" s="8"/>
@@ -4893,28 +4884,28 @@
       <c r="AB36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="36" t="n">
+      <c r="B37" s="34" t="n">
         <v>33218</v>
       </c>
-      <c r="C37" s="36" t="n">
+      <c r="C37" s="34" t="n">
         <v>33428</v>
       </c>
-      <c r="D37" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="31" t="n">
+      <c r="D37" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>99470</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="28" t="n">
+      <c r="G37" s="26" t="n">
         <v>4</v>
       </c>
-      <c r="H37" s="20" t="n">
+      <c r="H37" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I37" s="8"/>
@@ -4939,26 +4930,26 @@
       <c r="AB37" s="8"/>
     </row>
     <row r="38" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="35" t="s">
+      <c r="A38" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="36" t="n">
+      <c r="B38" s="34" t="n">
         <v>31380</v>
       </c>
-      <c r="C38" s="36" t="n">
+      <c r="C38" s="34" t="n">
         <v>31569</v>
       </c>
-      <c r="D38" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="31" t="n">
+      <c r="D38" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>99541</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="25" t="s">
         <v>88</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="20" t="n">
+      <c r="H38" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I38" s="8"/>
@@ -4983,26 +4974,26 @@
       <c r="AB38" s="8"/>
     </row>
     <row r="39" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="36" t="n">
+      <c r="B39" s="34" t="n">
         <v>30108</v>
       </c>
-      <c r="C39" s="36" t="n">
+      <c r="C39" s="34" t="n">
         <v>30251</v>
       </c>
-      <c r="D39" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="31" t="n">
+      <c r="D39" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>99680</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="25" t="s">
         <v>90</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="20" t="n">
+      <c r="H39" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I39" s="8"/>
@@ -5027,26 +5018,26 @@
       <c r="AB39" s="8"/>
     </row>
     <row r="40" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="B40" s="36" t="n">
+      <c r="B40" s="34" t="n">
         <v>65527</v>
       </c>
-      <c r="C40" s="36" t="n">
+      <c r="C40" s="34" t="n">
         <v>65834</v>
       </c>
-      <c r="D40" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="31" t="n">
+      <c r="D40" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>100829</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="25" t="s">
         <v>92</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="20" t="n">
+      <c r="H40" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I40" s="8"/>
@@ -5071,26 +5062,26 @@
       <c r="AB40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B41" s="36" t="n">
+      <c r="B41" s="34" t="n">
         <v>57899</v>
       </c>
-      <c r="C41" s="36" t="n">
+      <c r="C41" s="34" t="n">
         <v>58563</v>
       </c>
-      <c r="D41" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="31" t="n">
+      <c r="D41" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>100980</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="25" t="s">
         <v>94</v>
       </c>
       <c r="G41" s="13"/>
-      <c r="H41" s="20" t="n">
+      <c r="H41" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I41" s="8"/>
@@ -5115,26 +5106,26 @@
       <c r="AB41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="35" t="s">
+      <c r="A42" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="36" t="n">
+      <c r="B42" s="34" t="n">
         <v>45345</v>
       </c>
-      <c r="C42" s="36" t="n">
+      <c r="C42" s="34" t="n">
         <v>45813</v>
       </c>
-      <c r="D42" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="31" t="s">
+      <c r="D42" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="25" t="s">
         <v>97</v>
       </c>
       <c r="G42" s="13"/>
-      <c r="H42" s="20" t="n">
+      <c r="H42" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I42" s="8"/>
@@ -5159,26 +5150,26 @@
       <c r="AB42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="B43" s="36" t="n">
+      <c r="B43" s="34" t="n">
         <v>7432</v>
       </c>
-      <c r="C43" s="36" t="n">
+      <c r="C43" s="34" t="n">
         <v>7741</v>
       </c>
-      <c r="D43" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="31" t="s">
+      <c r="D43" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F43" s="27" t="s">
+      <c r="F43" s="25" t="s">
         <v>100</v>
       </c>
       <c r="G43" s="13"/>
-      <c r="H43" s="20" t="n">
+      <c r="H43" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I43" s="8"/>
@@ -5203,26 +5194,26 @@
       <c r="AB43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="35" t="s">
+      <c r="A44" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="36" t="n">
+      <c r="B44" s="34" t="n">
         <v>68493</v>
       </c>
-      <c r="C44" s="36" t="n">
+      <c r="C44" s="34" t="n">
         <v>68493</v>
       </c>
-      <c r="D44" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="31" t="n">
+      <c r="D44" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>492735</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="25" t="s">
         <v>102</v>
       </c>
       <c r="G44" s="13"/>
-      <c r="H44" s="20" t="n">
+      <c r="H44" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I44" s="8"/>
@@ -5247,26 +5238,26 @@
       <c r="AB44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="35" t="s">
+      <c r="A45" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="36" t="n">
+      <c r="B45" s="34" t="n">
         <v>2811</v>
       </c>
-      <c r="C45" s="36" t="n">
+      <c r="C45" s="34" t="n">
         <v>3101</v>
       </c>
-      <c r="D45" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="31" t="n">
+      <c r="D45" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>77006572</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="25" t="s">
         <v>104</v>
       </c>
       <c r="G45" s="13"/>
-      <c r="H45" s="20" t="n">
+      <c r="H45" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I45" s="8"/>
@@ -5291,26 +5282,26 @@
       <c r="AB45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="36" t="n">
+      <c r="B46" s="34" t="n">
         <v>86959</v>
       </c>
-      <c r="C46" s="36" t="n">
+      <c r="C46" s="34" t="n">
         <v>87385</v>
       </c>
-      <c r="D46" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="31" t="n">
+      <c r="D46" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>503440</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="25" t="s">
         <v>106</v>
       </c>
       <c r="G46" s="13"/>
-      <c r="H46" s="20" t="n">
+      <c r="H46" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I46" s="8"/>
@@ -5335,26 +5326,26 @@
       <c r="AB46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="36" t="n">
+      <c r="B47" s="34" t="n">
         <v>54090</v>
       </c>
-      <c r="C47" s="36" t="n">
+      <c r="C47" s="34" t="n">
         <v>54278</v>
       </c>
-      <c r="D47" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="31" t="n">
+      <c r="D47" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>492892</v>
       </c>
-      <c r="F47" s="43" t="s">
+      <c r="F47" s="41" t="s">
         <v>108</v>
       </c>
       <c r="G47" s="13"/>
-      <c r="H47" s="20" t="n">
+      <c r="H47" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I47" s="8"/>
@@ -5379,26 +5370,26 @@
       <c r="AB47" s="8"/>
     </row>
     <row r="48" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="35" t="s">
+      <c r="A48" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B48" s="36" t="n">
+      <c r="B48" s="34" t="n">
         <v>36141</v>
       </c>
-      <c r="C48" s="36" t="n">
+      <c r="C48" s="34" t="n">
         <v>36310</v>
       </c>
-      <c r="D48" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="31" t="n">
+      <c r="D48" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>503014</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="41" t="s">
         <v>108</v>
       </c>
       <c r="G48" s="13"/>
-      <c r="H48" s="20" t="n">
+      <c r="H48" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I48" s="8"/>
@@ -5423,26 +5414,26 @@
       <c r="AB48" s="8"/>
     </row>
     <row r="49" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="33" t="n">
+      <c r="B49" s="31" t="n">
         <v>34985</v>
       </c>
-      <c r="C49" s="33" t="n">
+      <c r="C49" s="31" t="n">
         <v>35310</v>
       </c>
-      <c r="D49" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="31" t="n">
+      <c r="D49" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>88031383</v>
       </c>
-      <c r="F49" s="27" t="s">
+      <c r="F49" s="25" t="s">
         <v>111</v>
       </c>
       <c r="G49" s="13"/>
-      <c r="H49" s="20" t="n">
+      <c r="H49" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I49" s="8"/>
@@ -5467,26 +5458,26 @@
       <c r="AB49" s="8"/>
     </row>
     <row r="50" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="35" t="s">
+      <c r="A50" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B50" s="36" t="n">
+      <c r="B50" s="34" t="n">
         <v>28762</v>
       </c>
-      <c r="C50" s="36" t="n">
+      <c r="C50" s="34" t="n">
         <v>28910</v>
       </c>
-      <c r="D50" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="31" t="n">
+      <c r="D50" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16596</v>
       </c>
-      <c r="F50" s="27" t="s">
+      <c r="F50" s="25" t="s">
         <v>113</v>
       </c>
       <c r="G50" s="13"/>
-      <c r="H50" s="20" t="n">
+      <c r="H50" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I50" s="8"/>
@@ -5511,26 +5502,26 @@
       <c r="AB50" s="8"/>
     </row>
     <row r="51" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="35" t="s">
+      <c r="A51" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B51" s="36" t="n">
+      <c r="B51" s="34" t="n">
         <v>41672</v>
       </c>
-      <c r="C51" s="36" t="n">
+      <c r="C51" s="34" t="n">
         <v>41866</v>
       </c>
-      <c r="D51" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="31" t="n">
+      <c r="D51" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>88031436</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="F51" s="25" t="s">
         <v>115</v>
       </c>
       <c r="G51" s="13"/>
-      <c r="H51" s="20" t="n">
+      <c r="H51" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I51" s="8"/>
@@ -5555,26 +5546,26 @@
       <c r="AB51" s="8"/>
     </row>
     <row r="52" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="35" t="s">
+      <c r="A52" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B52" s="44" t="n">
+      <c r="B52" s="42" t="n">
         <v>59463</v>
       </c>
-      <c r="C52" s="44" t="n">
+      <c r="C52" s="42" t="n">
         <v>60247</v>
       </c>
-      <c r="D52" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="31" t="n">
+      <c r="D52" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>88031413</v>
       </c>
-      <c r="F52" s="27" t="s">
+      <c r="F52" s="25" t="s">
         <v>117</v>
       </c>
       <c r="G52" s="13"/>
-      <c r="H52" s="20" t="n">
+      <c r="H52" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I52" s="8"/>
@@ -5599,26 +5590,26 @@
       <c r="AB52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="35" t="s">
+      <c r="A53" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B53" s="45" t="n">
+      <c r="B53" s="43" t="n">
         <v>32561</v>
       </c>
-      <c r="C53" s="45" t="n">
+      <c r="C53" s="43" t="n">
         <v>33824</v>
       </c>
-      <c r="D53" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E53" s="26" t="s">
+      <c r="D53" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="F53" s="27" t="s">
+      <c r="F53" s="25" t="s">
         <v>120</v>
       </c>
       <c r="G53" s="13"/>
-      <c r="H53" s="20" t="n">
+      <c r="H53" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I53" s="8"/>
@@ -5643,26 +5634,26 @@
       <c r="AB53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B54" s="36" t="n">
+      <c r="B54" s="34" t="n">
         <v>38589</v>
       </c>
-      <c r="C54" s="36" t="n">
+      <c r="C54" s="34" t="n">
         <v>38589</v>
       </c>
-      <c r="D54" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E54" s="31" t="n">
+      <c r="D54" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>4369</v>
       </c>
-      <c r="F54" s="27" t="s">
+      <c r="F54" s="25" t="s">
         <v>70</v>
       </c>
       <c r="G54" s="13"/>
-      <c r="H54" s="20" t="n">
+      <c r="H54" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I54" s="8"/>
@@ -5687,26 +5678,26 @@
       <c r="AB54" s="8"/>
     </row>
     <row r="55" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="35" t="s">
+      <c r="A55" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="36" t="n">
+      <c r="B55" s="34" t="n">
         <v>36462</v>
       </c>
-      <c r="C55" s="36" t="n">
+      <c r="C55" s="34" t="n">
         <v>36462</v>
       </c>
-      <c r="D55" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E55" s="31" t="n">
+      <c r="D55" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>1400</v>
       </c>
-      <c r="F55" s="27" t="s">
+      <c r="F55" s="25" t="s">
         <v>123</v>
       </c>
       <c r="G55" s="13"/>
-      <c r="H55" s="20" t="n">
+      <c r="H55" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I55" s="8"/>
@@ -5731,26 +5722,26 @@
       <c r="AB55" s="8"/>
     </row>
     <row r="56" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="35" t="s">
+      <c r="A56" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="36" t="n">
+      <c r="B56" s="34" t="n">
         <v>43342</v>
       </c>
-      <c r="C56" s="36" t="n">
+      <c r="C56" s="34" t="n">
         <v>43342</v>
       </c>
-      <c r="D56" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="31" t="n">
+      <c r="D56" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>2328</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="F56" s="25" t="s">
         <v>125</v>
       </c>
       <c r="G56" s="13"/>
-      <c r="H56" s="20" t="n">
+      <c r="H56" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I56" s="8"/>
@@ -5775,26 +5766,26 @@
       <c r="AB56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="35" t="s">
+      <c r="A57" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B57" s="36" t="n">
+      <c r="B57" s="34" t="n">
         <v>77142</v>
       </c>
-      <c r="C57" s="36" t="n">
+      <c r="C57" s="34" t="n">
         <v>77142</v>
       </c>
-      <c r="D57" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E57" s="31" t="n">
+      <c r="D57" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>6910</v>
       </c>
-      <c r="F57" s="27" t="s">
+      <c r="F57" s="25" t="s">
         <v>94</v>
       </c>
       <c r="G57" s="13"/>
-      <c r="H57" s="20" t="n">
+      <c r="H57" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I57" s="8"/>
@@ -5819,26 +5810,26 @@
       <c r="AB57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="41" t="s">
+      <c r="A58" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B58" s="36" t="n">
+      <c r="B58" s="34" t="n">
         <v>8070</v>
       </c>
-      <c r="C58" s="36" t="n">
+      <c r="C58" s="34" t="n">
         <v>8272</v>
       </c>
-      <c r="D58" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E58" s="31" t="s">
+      <c r="D58" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E58" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="27" t="s">
+      <c r="F58" s="25" t="s">
         <v>129</v>
       </c>
       <c r="G58" s="13"/>
-      <c r="H58" s="20" t="n">
+      <c r="H58" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I58" s="8"/>
@@ -5863,26 +5854,26 @@
       <c r="AB58" s="8"/>
     </row>
     <row r="59" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="B59" s="36" t="n">
+      <c r="B59" s="34" t="n">
         <v>23784</v>
       </c>
-      <c r="C59" s="36" t="n">
+      <c r="C59" s="34" t="n">
         <v>24251</v>
       </c>
-      <c r="D59" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E59" s="31" t="s">
+      <c r="D59" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="27" t="s">
+      <c r="F59" s="25" t="s">
         <v>132</v>
       </c>
       <c r="G59" s="13"/>
-      <c r="H59" s="20" t="n">
+      <c r="H59" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I59" s="8"/>
@@ -5907,26 +5898,26 @@
       <c r="AB59" s="8"/>
     </row>
     <row r="60" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="35" t="s">
+      <c r="A60" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="36" t="n">
+      <c r="B60" s="34" t="n">
         <v>7086</v>
       </c>
-      <c r="C60" s="36" t="n">
+      <c r="C60" s="34" t="n">
         <v>7086</v>
       </c>
-      <c r="D60" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E60" s="31" t="s">
+      <c r="D60" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E60" s="29" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="25" t="s">
         <v>135</v>
       </c>
       <c r="G60" s="13"/>
-      <c r="H60" s="20" t="n">
+      <c r="H60" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I60" s="8"/>
@@ -5951,26 +5942,26 @@
       <c r="AB60" s="8"/>
     </row>
     <row r="61" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="36" t="n">
+      <c r="B61" s="34" t="n">
         <v>37867</v>
       </c>
-      <c r="C61" s="36" t="n">
+      <c r="C61" s="34" t="n">
         <v>38041</v>
       </c>
-      <c r="D61" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="31" t="s">
+      <c r="D61" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="25" t="s">
         <v>138</v>
       </c>
       <c r="G61" s="13"/>
-      <c r="H61" s="20" t="n">
+      <c r="H61" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I61" s="8"/>
@@ -5995,26 +5986,26 @@
       <c r="AB61" s="8"/>
     </row>
     <row r="62" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="35" t="s">
+      <c r="A62" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="36" t="n">
+      <c r="B62" s="34" t="n">
         <v>4306</v>
       </c>
-      <c r="C62" s="36" t="n">
+      <c r="C62" s="34" t="n">
         <v>4478</v>
       </c>
-      <c r="D62" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="31" t="s">
+      <c r="D62" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E62" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="25" t="s">
         <v>141</v>
       </c>
       <c r="G62" s="13"/>
-      <c r="H62" s="20" t="n">
+      <c r="H62" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I62" s="8"/>
@@ -6039,26 +6030,26 @@
       <c r="AB62" s="8"/>
     </row>
     <row r="63" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="35" t="s">
+      <c r="A63" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="36" t="n">
+      <c r="B63" s="34" t="n">
         <v>22245</v>
       </c>
-      <c r="C63" s="36" t="n">
+      <c r="C63" s="34" t="n">
         <v>22299</v>
       </c>
-      <c r="D63" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E63" s="31" t="n">
+      <c r="D63" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>530958</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="25" t="s">
         <v>143</v>
       </c>
       <c r="G63" s="13"/>
-      <c r="H63" s="20" t="n">
+      <c r="H63" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I63" s="8"/>
@@ -6083,26 +6074,26 @@
       <c r="AB63" s="8"/>
     </row>
     <row r="64" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B64" s="36" t="n">
+      <c r="B64" s="34" t="n">
         <v>18449</v>
       </c>
-      <c r="C64" s="36" t="n">
+      <c r="C64" s="34" t="n">
         <v>18702</v>
       </c>
-      <c r="D64" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="31" t="n">
+      <c r="D64" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>607637</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="25" t="s">
         <v>145</v>
       </c>
       <c r="G64" s="13"/>
-      <c r="H64" s="20" t="n">
+      <c r="H64" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I64" s="8"/>
@@ -6127,26 +6118,26 @@
       <c r="AB64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="35" t="s">
+      <c r="A65" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="36" t="n">
+      <c r="B65" s="34" t="n">
         <v>13784</v>
       </c>
-      <c r="C65" s="36" t="n">
+      <c r="C65" s="34" t="n">
         <v>13999</v>
       </c>
-      <c r="D65" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E65" s="31" t="n">
+      <c r="D65" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>56067</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="25" t="s">
         <v>147</v>
       </c>
       <c r="G65" s="13"/>
-      <c r="H65" s="20" t="n">
+      <c r="H65" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I65" s="8"/>
@@ -6171,26 +6162,26 @@
       <c r="AB65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="44" t="s">
         <v>148</v>
       </c>
-      <c r="B66" s="47" t="n">
+      <c r="B66" s="45" t="n">
         <v>35301.4</v>
       </c>
-      <c r="C66" s="47" t="n">
+      <c r="C66" s="45" t="n">
         <v>35460.3</v>
       </c>
-      <c r="D66" s="37" t="n">
+      <c r="D66" s="35" t="n">
         <v>40</v>
       </c>
-      <c r="E66" s="31" t="n">
+      <c r="E66" s="29" t="n">
         <v>1535390</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="25" t="s">
         <v>149</v>
       </c>
       <c r="G66" s="13"/>
-      <c r="H66" s="20" t="n">
+      <c r="H66" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I66" s="8"/>
@@ -6215,26 +6206,26 @@
       <c r="AB66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="40" t="s">
+      <c r="A67" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="B67" s="48" t="n">
+      <c r="B67" s="46" t="n">
         <v>879.2</v>
       </c>
-      <c r="C67" s="48" t="n">
+      <c r="C67" s="46" t="n">
         <v>1009.9</v>
       </c>
-      <c r="D67" s="48" t="n">
+      <c r="D67" s="46" t="n">
         <v>50</v>
       </c>
-      <c r="E67" s="31" t="s">
+      <c r="E67" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="25" t="s">
         <v>152</v>
       </c>
       <c r="G67" s="13"/>
-      <c r="H67" s="20" t="n">
+      <c r="H67" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I67" s="8"/>
@@ -6259,26 +6250,26 @@
       <c r="AB67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40" t="s">
+      <c r="A68" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="B68" s="49" t="n">
+      <c r="B68" s="47" t="n">
         <v>818620</v>
       </c>
-      <c r="C68" s="49" t="n">
+      <c r="C68" s="47" t="n">
         <v>820411</v>
       </c>
-      <c r="D68" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E68" s="31" t="n">
+      <c r="D68" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>399479</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="25" t="s">
         <v>154</v>
       </c>
       <c r="G68" s="13"/>
-      <c r="H68" s="20" t="n">
+      <c r="H68" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I68" s="8"/>
@@ -6303,26 +6294,26 @@
       <c r="AB68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="35" t="s">
+      <c r="A69" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B69" s="50" t="n">
+      <c r="B69" s="48" t="n">
         <v>51649</v>
       </c>
-      <c r="C69" s="50" t="n">
+      <c r="C69" s="48" t="n">
         <v>52135</v>
       </c>
-      <c r="D69" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E69" s="31" t="s">
+      <c r="D69" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="F69" s="27" t="s">
+      <c r="F69" s="25" t="s">
         <v>157</v>
       </c>
       <c r="G69" s="13"/>
-      <c r="H69" s="20" t="n">
+      <c r="H69" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I69" s="8"/>
@@ -6347,28 +6338,28 @@
       <c r="AB69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="51" t="s">
+      <c r="A70" s="49" t="s">
         <v>158</v>
       </c>
-      <c r="B70" s="36" t="n">
+      <c r="B70" s="34" t="n">
         <v>71879</v>
       </c>
-      <c r="C70" s="36" t="n">
+      <c r="C70" s="34" t="n">
         <v>72885</v>
       </c>
-      <c r="D70" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E70" s="31" t="s">
+      <c r="D70" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="29" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="27" t="s">
+      <c r="F70" s="25" t="s">
         <v>160</v>
       </c>
       <c r="G70" s="13" t="n">
         <v>11</v>
       </c>
-      <c r="H70" s="20" t="n">
+      <c r="H70" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I70" s="8"/>
@@ -6393,26 +6384,26 @@
       <c r="AB70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="36" t="n">
+      <c r="B71" s="34" t="n">
         <v>24007</v>
       </c>
-      <c r="C71" s="36" t="n">
+      <c r="C71" s="34" t="n">
         <v>24278</v>
       </c>
-      <c r="D71" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E71" s="31" t="s">
+      <c r="D71" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E71" s="29" t="s">
         <v>162</v>
       </c>
-      <c r="F71" s="27" t="s">
+      <c r="F71" s="25" t="s">
         <v>163</v>
       </c>
       <c r="G71" s="13"/>
-      <c r="H71" s="20" t="n">
+      <c r="H71" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I71" s="8"/>
@@ -6437,26 +6428,26 @@
       <c r="AB71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="35" t="s">
+      <c r="A72" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B72" s="36" t="n">
+      <c r="B72" s="34" t="n">
         <v>445</v>
       </c>
-      <c r="C72" s="36" t="n">
+      <c r="C72" s="34" t="n">
         <v>1794</v>
       </c>
-      <c r="D72" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E72" s="31" t="s">
+      <c r="D72" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="25" t="s">
         <v>166</v>
       </c>
       <c r="G72" s="13"/>
-      <c r="H72" s="20" t="n">
+      <c r="H72" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I72" s="8"/>
@@ -6481,28 +6472,28 @@
       <c r="AB72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B73" s="53" t="n">
+      <c r="B73" s="51" t="n">
         <v>26350.6</v>
       </c>
-      <c r="C73" s="53" t="n">
+      <c r="C73" s="51" t="n">
         <v>26708</v>
       </c>
-      <c r="D73" s="36" t="n">
+      <c r="D73" s="34" t="n">
         <v>30</v>
       </c>
-      <c r="E73" s="31" t="s">
+      <c r="E73" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G73" s="28" t="n">
+      <c r="G73" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="H73" s="20" t="n">
+      <c r="H73" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I73" s="8"/>
@@ -6527,28 +6518,28 @@
       <c r="AB73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="36" t="n">
+      <c r="B74" s="34" t="n">
         <v>88795</v>
       </c>
-      <c r="C74" s="36" t="n">
+      <c r="C74" s="34" t="n">
         <v>92675</v>
       </c>
-      <c r="D74" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E74" s="31" t="s">
+      <c r="D74" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E74" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="G74" s="28" t="n">
+      <c r="G74" s="26" t="n">
         <v>5</v>
       </c>
-      <c r="H74" s="20" t="n">
+      <c r="H74" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I74" s="8"/>
@@ -6573,26 +6564,26 @@
       <c r="AB74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="35" t="s">
+      <c r="A75" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="36" t="n">
+      <c r="B75" s="34" t="n">
         <v>84068</v>
       </c>
-      <c r="C75" s="36" t="n">
+      <c r="C75" s="34" t="n">
         <v>85556</v>
       </c>
-      <c r="D75" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E75" s="31" t="s">
+      <c r="D75" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>172</v>
       </c>
-      <c r="F75" s="27" t="s">
+      <c r="F75" s="25" t="s">
         <v>173</v>
       </c>
       <c r="G75" s="13"/>
-      <c r="H75" s="20" t="n">
+      <c r="H75" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I75" s="8"/>
@@ -6617,26 +6608,26 @@
       <c r="AB75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="B76" s="36" t="n">
+      <c r="B76" s="34" t="n">
         <v>92373</v>
       </c>
-      <c r="C76" s="36" t="n">
+      <c r="C76" s="34" t="n">
         <v>94848</v>
       </c>
-      <c r="D76" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E76" s="31" t="s">
+      <c r="D76" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F76" s="25" t="s">
         <v>176</v>
       </c>
       <c r="G76" s="13"/>
-      <c r="H76" s="20" t="n">
+      <c r="H76" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I76" s="8"/>
@@ -6661,26 +6652,26 @@
       <c r="AB76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="54" t="s">
+      <c r="A77" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="B77" s="45" t="n">
+      <c r="B77" s="43" t="n">
         <v>22795</v>
       </c>
-      <c r="C77" s="45" t="n">
+      <c r="C77" s="43" t="n">
         <v>23114</v>
       </c>
-      <c r="D77" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E77" s="31" t="s">
+      <c r="D77" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E77" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="F77" s="27" t="s">
+      <c r="F77" s="25" t="s">
         <v>179</v>
       </c>
       <c r="G77" s="13"/>
-      <c r="H77" s="20" t="n">
+      <c r="H77" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I77" s="8"/>
@@ -6705,26 +6696,26 @@
       <c r="AB77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B78" s="45" t="n">
+      <c r="B78" s="43" t="n">
         <v>5362</v>
       </c>
-      <c r="C78" s="45" t="n">
+      <c r="C78" s="43" t="n">
         <v>5578</v>
       </c>
-      <c r="D78" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E78" s="31" t="s">
+      <c r="D78" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E78" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="25" t="s">
         <v>182</v>
       </c>
       <c r="G78" s="13"/>
-      <c r="H78" s="20" t="n">
+      <c r="H78" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I78" s="8"/>
@@ -6749,26 +6740,26 @@
       <c r="AB78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="26.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="B79" s="45" t="n">
+      <c r="B79" s="43" t="n">
         <v>13606</v>
       </c>
-      <c r="C79" s="45" t="n">
+      <c r="C79" s="43" t="n">
         <v>13888</v>
       </c>
-      <c r="D79" s="45" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="56" t="s">
+      <c r="D79" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="F79" s="27" t="s">
+      <c r="F79" s="25" t="s">
         <v>185</v>
       </c>
       <c r="G79" s="13"/>
-      <c r="H79" s="20" t="n">
+      <c r="H79" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I79" s="8"/>
@@ -6793,26 +6784,26 @@
       <c r="AB79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="57" t="s">
+      <c r="A80" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="B80" s="36" t="n">
+      <c r="B80" s="34" t="n">
         <v>78421</v>
       </c>
-      <c r="C80" s="36" t="n">
+      <c r="C80" s="34" t="n">
         <v>79504</v>
       </c>
-      <c r="D80" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E80" s="31" t="s">
+      <c r="D80" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E80" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F80" s="25" t="s">
         <v>188</v>
       </c>
       <c r="G80" s="13"/>
-      <c r="H80" s="20" t="n">
+      <c r="H80" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I80" s="8"/>
@@ -6837,28 +6828,28 @@
       <c r="AB80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="50" t="n">
+      <c r="B81" s="48" t="n">
         <v>57355</v>
       </c>
-      <c r="C81" s="50" t="n">
+      <c r="C81" s="48" t="n">
         <v>58288</v>
       </c>
-      <c r="D81" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="E81" s="31" t="s">
+      <c r="D81" s="48" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="G81" s="28" t="n">
+      <c r="G81" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="H81" s="20" t="n">
+      <c r="H81" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I81" s="8"/>
@@ -6883,26 +6874,26 @@
       <c r="AB81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="33" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="36" t="n">
+      <c r="B82" s="34" t="n">
         <v>27653</v>
       </c>
-      <c r="C82" s="36" t="n">
+      <c r="C82" s="34" t="n">
         <v>27820</v>
       </c>
-      <c r="D82" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E82" s="31" t="s">
+      <c r="D82" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="F82" s="25" t="s">
         <v>194</v>
       </c>
       <c r="G82" s="13"/>
-      <c r="H82" s="20" t="n">
+      <c r="H82" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I82" s="8"/>
@@ -6927,26 +6918,26 @@
       <c r="AB82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="35" t="s">
+      <c r="A83" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B83" s="36" t="n">
+      <c r="B83" s="34" t="n">
         <v>82107</v>
       </c>
-      <c r="C83" s="36" t="n">
+      <c r="C83" s="34" t="n">
         <v>83087</v>
       </c>
-      <c r="D83" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E83" s="31" t="s">
+      <c r="D83" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="25" t="s">
         <v>194</v>
       </c>
       <c r="G83" s="13"/>
-      <c r="H83" s="20" t="n">
+      <c r="H83" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I83" s="8"/>
@@ -6971,26 +6962,26 @@
       <c r="AB83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="35" t="s">
+      <c r="A84" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="B84" s="36" t="n">
+      <c r="B84" s="34" t="n">
         <v>113290</v>
       </c>
-      <c r="C84" s="36" t="n">
+      <c r="C84" s="34" t="n">
         <v>114418</v>
       </c>
-      <c r="D84" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E84" s="31" t="s">
+      <c r="D84" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="25" t="s">
         <v>199</v>
       </c>
       <c r="G84" s="13"/>
-      <c r="H84" s="20" t="n">
+      <c r="H84" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I84" s="8"/>
@@ -7015,26 +7006,26 @@
       <c r="AB84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="B85" s="58" t="n">
+      <c r="B85" s="56" t="n">
         <v>20240</v>
       </c>
-      <c r="C85" s="58" t="n">
+      <c r="C85" s="56" t="n">
         <v>21274</v>
       </c>
-      <c r="D85" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E85" s="31" t="n">
+      <c r="D85" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" s="29" t="n">
         <v>34431</v>
       </c>
-      <c r="F85" s="27" t="s">
+      <c r="F85" s="25" t="s">
         <v>201</v>
       </c>
       <c r="G85" s="13"/>
-      <c r="H85" s="20" t="n">
+      <c r="H85" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I85" s="8"/>
@@ -7059,26 +7050,26 @@
       <c r="AB85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="59" t="s">
+      <c r="A86" s="57" t="s">
         <v>202</v>
       </c>
-      <c r="B86" s="58" t="n">
+      <c r="B86" s="56" t="n">
         <v>67120</v>
       </c>
-      <c r="C86" s="58" t="n">
+      <c r="C86" s="56" t="n">
         <v>68311</v>
       </c>
-      <c r="D86" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E86" s="31" t="s">
+      <c r="D86" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F86" s="25" t="s">
         <v>204</v>
       </c>
       <c r="G86" s="13"/>
-      <c r="H86" s="20" t="n">
+      <c r="H86" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I86" s="8"/>
@@ -7103,28 +7094,28 @@
       <c r="AB86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="35" t="s">
+      <c r="A87" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B87" s="58" t="n">
+      <c r="B87" s="56" t="n">
         <v>32953</v>
       </c>
-      <c r="C87" s="58" t="n">
+      <c r="C87" s="56" t="n">
         <v>33569</v>
       </c>
-      <c r="D87" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E87" s="26" t="s">
+      <c r="D87" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E87" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="G87" s="28" t="n">
+      <c r="G87" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="H87" s="20" t="n">
+      <c r="H87" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I87" s="8"/>
@@ -7149,26 +7140,26 @@
       <c r="AB87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="16" t="s">
+      <c r="A88" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B88" s="58" t="n">
+      <c r="B88" s="56" t="n">
         <v>38431</v>
       </c>
-      <c r="C88" s="58" t="n">
+      <c r="C88" s="56" t="n">
         <v>39220</v>
       </c>
-      <c r="D88" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E88" s="31" t="s">
+      <c r="D88" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E88" s="29" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F88" s="25" t="s">
         <v>209</v>
       </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="20" t="n">
+      <c r="H88" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I88" s="8"/>
@@ -7193,7 +7184,7 @@
       <c r="AB88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="57" t="s">
         <v>210</v>
       </c>
       <c r="B89" s="10" t="n">
@@ -7202,7 +7193,7 @@
       <c r="C89" s="10" t="n">
         <v>64381</v>
       </c>
-      <c r="D89" s="17" t="n">
+      <c r="D89" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E89" s="11" t="s">
@@ -7212,7 +7203,7 @@
         <v>212</v>
       </c>
       <c r="G89" s="13"/>
-      <c r="H89" s="20" t="n">
+      <c r="H89" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I89" s="8"/>
@@ -7237,26 +7228,26 @@
       <c r="AB89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="60" t="s">
+      <c r="A90" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B90" s="58" t="n">
+      <c r="B90" s="56" t="n">
         <v>76463</v>
       </c>
-      <c r="C90" s="58" t="n">
+      <c r="C90" s="56" t="n">
         <v>77822</v>
       </c>
-      <c r="D90" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E90" s="31" t="s">
+      <c r="D90" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="25" t="s">
         <v>215</v>
       </c>
       <c r="G90" s="13"/>
-      <c r="H90" s="20" t="n">
+      <c r="H90" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I90" s="8"/>
@@ -7281,26 +7272,26 @@
       <c r="AB90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="35" t="s">
+      <c r="A91" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="B91" s="33" t="n">
+      <c r="B91" s="31" t="n">
         <v>18339</v>
       </c>
-      <c r="C91" s="33" t="n">
+      <c r="C91" s="31" t="n">
         <v>19126</v>
       </c>
-      <c r="D91" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E91" s="31" t="s">
+      <c r="D91" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E91" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="F91" s="27" t="s">
+      <c r="F91" s="25" t="s">
         <v>218</v>
       </c>
       <c r="G91" s="13"/>
-      <c r="H91" s="20" t="n">
+      <c r="H91" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I91" s="8"/>
@@ -7325,26 +7316,26 @@
       <c r="AB91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="35" t="s">
+      <c r="A92" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="B92" s="58" t="n">
+      <c r="B92" s="56" t="n">
         <v>65855</v>
       </c>
-      <c r="C92" s="58" t="n">
+      <c r="C92" s="56" t="n">
         <v>66869</v>
       </c>
-      <c r="D92" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E92" s="31" t="s">
+      <c r="D92" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E92" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="25" t="s">
         <v>221</v>
       </c>
       <c r="G92" s="13"/>
-      <c r="H92" s="20" t="n">
+      <c r="H92" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I92" s="8"/>
@@ -7369,26 +7360,26 @@
       <c r="AB92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="35" t="s">
+      <c r="A93" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="B93" s="58" t="n">
+      <c r="B93" s="56" t="n">
         <v>39164</v>
       </c>
-      <c r="C93" s="58" t="n">
+      <c r="C93" s="56" t="n">
         <v>39896</v>
       </c>
-      <c r="D93" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E93" s="31" t="s">
+      <c r="D93" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E93" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="25" t="s">
         <v>224</v>
       </c>
       <c r="G93" s="13"/>
-      <c r="H93" s="20" t="n">
+      <c r="H93" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I93" s="8"/>
@@ -7413,26 +7404,26 @@
       <c r="AB93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="60" t="s">
+      <c r="A94" s="58" t="s">
         <v>225</v>
       </c>
-      <c r="B94" s="36" t="n">
+      <c r="B94" s="34" t="n">
         <v>376817</v>
       </c>
-      <c r="C94" s="36" t="n">
+      <c r="C94" s="34" t="n">
         <v>376844</v>
       </c>
-      <c r="D94" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E94" s="31" t="s">
+      <c r="D94" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="F94" s="27" t="s">
+      <c r="F94" s="25" t="s">
         <v>227</v>
       </c>
       <c r="G94" s="13"/>
-      <c r="H94" s="20" t="n">
+      <c r="H94" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I94" s="8"/>
@@ -7457,26 +7448,26 @@
       <c r="AB94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="60" t="s">
+      <c r="A95" s="58" t="s">
         <v>228</v>
       </c>
-      <c r="B95" s="36" t="n">
+      <c r="B95" s="34" t="n">
         <v>51143</v>
       </c>
-      <c r="C95" s="36" t="n">
+      <c r="C95" s="34" t="n">
         <v>51478</v>
       </c>
-      <c r="D95" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E95" s="31" t="s">
+      <c r="D95" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E95" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="25" t="s">
         <v>230</v>
       </c>
       <c r="G95" s="13"/>
-      <c r="H95" s="20" t="n">
+      <c r="H95" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I95" s="8"/>
@@ -7501,26 +7492,26 @@
       <c r="AB95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="35" t="s">
+      <c r="A96" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B96" s="36" t="n">
+      <c r="B96" s="34" t="n">
         <v>19323</v>
       </c>
-      <c r="C96" s="36" t="n">
+      <c r="C96" s="34" t="n">
         <v>19323</v>
       </c>
-      <c r="D96" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E96" s="31" t="n">
+      <c r="D96" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="29" t="n">
         <v>282335</v>
       </c>
-      <c r="F96" s="27" t="s">
+      <c r="F96" s="25" t="s">
         <v>232</v>
       </c>
       <c r="G96" s="13"/>
-      <c r="H96" s="20" t="n">
+      <c r="H96" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I96" s="8"/>
@@ -7545,26 +7536,26 @@
       <c r="AB96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="61" t="s">
+      <c r="A97" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="B97" s="36" t="n">
+      <c r="B97" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="C97" s="36" t="n">
+      <c r="C97" s="34" t="n">
         <v>0</v>
       </c>
-      <c r="D97" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E97" s="31" t="s">
+      <c r="D97" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" s="29" t="s">
         <v>234</v>
       </c>
-      <c r="F97" s="61" t="s">
+      <c r="F97" s="59" t="s">
         <v>233</v>
       </c>
       <c r="G97" s="13"/>
-      <c r="H97" s="20" t="n">
+      <c r="H97" s="14" t="n">
         <v>4</v>
       </c>
       <c r="I97" s="8"/>
@@ -7589,29 +7580,29 @@
       <c r="AB97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="51" t="s">
+      <c r="A98" s="49" t="s">
         <v>235</v>
       </c>
-      <c r="B98" s="36" t="n">
+      <c r="B98" s="34" t="n">
         <v>14040</v>
       </c>
-      <c r="C98" s="36" t="n">
+      <c r="C98" s="34" t="n">
         <v>14095</v>
       </c>
-      <c r="D98" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" s="31" t="s">
+      <c r="D98" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="29" t="s">
         <v>236</v>
       </c>
-      <c r="F98" s="61" t="s">
+      <c r="F98" s="59" t="s">
         <v>233</v>
       </c>
       <c r="G98" s="13"/>
-      <c r="H98" s="20" t="n">
+      <c r="H98" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="I98" s="15" t="s">
+      <c r="I98" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J98" s="8"/>
@@ -7636,7 +7627,7 @@
     </row>
     <row r="99" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8"/>
-      <c r="B99" s="62"/>
+      <c r="B99" s="60"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
@@ -7673,7 +7664,7 @@
       <c r="C100" s="10" t="n">
         <v>99925</v>
       </c>
-      <c r="D100" s="17" t="n">
+      <c r="D100" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E100" s="11" t="s">
@@ -7683,10 +7674,10 @@
         <v>237</v>
       </c>
       <c r="G100" s="13"/>
-      <c r="H100" s="63" t="n">
+      <c r="H100" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="I100" s="8" t="s">
         <v>239</v>
       </c>
       <c r="J100" s="8"/>
@@ -7710,7 +7701,7 @@
       <c r="AB100" s="8"/>
     </row>
     <row r="101" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="64" t="s">
+      <c r="A101" s="62" t="s">
         <v>240</v>
       </c>
       <c r="B101" s="10" t="n">
@@ -7719,17 +7710,17 @@
       <c r="C101" s="10" t="n">
         <v>322887</v>
       </c>
-      <c r="D101" s="17" t="n">
+      <c r="D101" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F101" s="65" t="s">
+      <c r="F101" s="63" t="s">
         <v>242</v>
       </c>
       <c r="G101" s="13"/>
-      <c r="H101" s="63" t="n">
+      <c r="H101" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J101" s="8"/>
@@ -7753,7 +7744,7 @@
       <c r="AB101" s="8"/>
     </row>
     <row r="102" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="66" t="s">
+      <c r="A102" s="64" t="s">
         <v>243</v>
       </c>
       <c r="B102" s="10" t="n">
@@ -7762,17 +7753,17 @@
       <c r="C102" s="10" t="n">
         <v>371482</v>
       </c>
-      <c r="D102" s="17" t="n">
+      <c r="D102" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="F102" s="65" t="s">
+      <c r="F102" s="63" t="s">
         <v>245</v>
       </c>
       <c r="G102" s="13"/>
-      <c r="H102" s="63" t="n">
+      <c r="H102" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J102" s="8"/>
@@ -7796,7 +7787,7 @@
       <c r="AB102" s="8"/>
     </row>
     <row r="103" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="64" t="s">
+      <c r="A103" s="62" t="s">
         <v>246</v>
       </c>
       <c r="B103" s="10" t="n">
@@ -7805,17 +7796,17 @@
       <c r="C103" s="10" t="n">
         <v>13282</v>
       </c>
-      <c r="D103" s="17" t="n">
+      <c r="D103" s="16" t="n">
         <v>60</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F103" s="65" t="s">
+      <c r="F103" s="63" t="s">
         <v>248</v>
       </c>
       <c r="G103" s="13"/>
-      <c r="H103" s="63" t="n">
+      <c r="H103" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J103" s="8"/>
@@ -7839,7 +7830,7 @@
       <c r="AB103" s="8"/>
     </row>
     <row r="104" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="64" t="s">
+      <c r="A104" s="62" t="s">
         <v>249</v>
       </c>
       <c r="B104" s="10" t="n">
@@ -7848,17 +7839,17 @@
       <c r="C104" s="10" t="n">
         <v>125160</v>
       </c>
-      <c r="D104" s="17" t="n">
+      <c r="D104" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="F104" s="67" t="s">
+      <c r="F104" s="65" t="s">
         <v>251</v>
       </c>
       <c r="G104" s="13"/>
-      <c r="H104" s="63" t="n">
+      <c r="H104" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J104" s="8"/>
@@ -7882,7 +7873,7 @@
       <c r="AB104" s="8"/>
     </row>
     <row r="105" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="64" t="s">
+      <c r="A105" s="62" t="s">
         <v>252</v>
       </c>
       <c r="B105" s="10" t="n">
@@ -7891,17 +7882,17 @@
       <c r="C105" s="10" t="n">
         <v>43423</v>
       </c>
-      <c r="D105" s="17" t="n">
+      <c r="D105" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F105" s="65" t="s">
+      <c r="F105" s="63" t="s">
         <v>254</v>
       </c>
       <c r="G105" s="13"/>
-      <c r="H105" s="63" t="n">
+      <c r="H105" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J105" s="8"/>
@@ -7925,7 +7916,7 @@
       <c r="AB105" s="8"/>
     </row>
     <row r="106" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="68" t="s">
+      <c r="A106" s="66" t="s">
         <v>255</v>
       </c>
       <c r="B106" s="10" t="n">
@@ -7934,17 +7925,17 @@
       <c r="C106" s="10" t="n">
         <v>153727</v>
       </c>
-      <c r="D106" s="17" t="n">
+      <c r="D106" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E106" s="11" t="n">
         <v>5006</v>
       </c>
-      <c r="F106" s="65" t="s">
+      <c r="F106" s="63" t="s">
         <v>256</v>
       </c>
       <c r="G106" s="13"/>
-      <c r="H106" s="63" t="n">
+      <c r="H106" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J106" s="8"/>
@@ -7968,7 +7959,7 @@
       <c r="AB106" s="8"/>
     </row>
     <row r="107" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="63" t="s">
         <v>257</v>
       </c>
       <c r="B107" s="10" t="n">
@@ -7977,17 +7968,17 @@
       <c r="C107" s="10" t="n">
         <v>258740</v>
       </c>
-      <c r="D107" s="17" t="n">
+      <c r="D107" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F107" s="65" t="s">
+      <c r="F107" s="63" t="s">
         <v>257</v>
       </c>
       <c r="G107" s="13"/>
-      <c r="H107" s="63" t="n">
+      <c r="H107" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J107" s="8"/>
@@ -8011,7 +8002,7 @@
       <c r="AB107" s="8"/>
     </row>
     <row r="108" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="64" t="s">
+      <c r="A108" s="62" t="s">
         <v>259</v>
       </c>
       <c r="B108" s="10" t="n">
@@ -8020,17 +8011,17 @@
       <c r="C108" s="10" t="n">
         <v>3629</v>
       </c>
-      <c r="D108" s="17" t="n">
+      <c r="D108" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F108" s="65" t="s">
+      <c r="F108" s="63" t="s">
         <v>261</v>
       </c>
       <c r="G108" s="13"/>
-      <c r="H108" s="63" t="n">
+      <c r="H108" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J108" s="8"/>
@@ -8054,7 +8045,7 @@
       <c r="AB108" s="8"/>
     </row>
     <row r="109" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="64" t="s">
+      <c r="A109" s="62" t="s">
         <v>262</v>
       </c>
       <c r="B109" s="10" t="n">
@@ -8063,17 +8054,17 @@
       <c r="C109" s="10" t="n">
         <v>459553</v>
       </c>
-      <c r="D109" s="17" t="n">
+      <c r="D109" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F109" s="65" t="s">
+      <c r="F109" s="63" t="s">
         <v>264</v>
       </c>
       <c r="G109" s="13"/>
-      <c r="H109" s="63" t="n">
+      <c r="H109" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J109" s="8"/>
@@ -8097,7 +8088,7 @@
       <c r="AB109" s="8"/>
     </row>
     <row r="110" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="64" t="s">
+      <c r="A110" s="62" t="s">
         <v>265</v>
       </c>
       <c r="B110" s="10" t="n">
@@ -8106,17 +8097,17 @@
       <c r="C110" s="10" t="n">
         <v>541184</v>
       </c>
-      <c r="D110" s="17" t="n">
+      <c r="D110" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F110" s="65" t="s">
+      <c r="F110" s="63" t="s">
         <v>267</v>
       </c>
       <c r="G110" s="13"/>
-      <c r="H110" s="63" t="n">
+      <c r="H110" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J110" s="8"/>
@@ -8140,28 +8131,28 @@
       <c r="AB110" s="8"/>
     </row>
     <row r="111" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="69" t="s">
+      <c r="A111" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="70" t="n">
+      <c r="B111" s="68" t="n">
         <v>39931</v>
       </c>
-      <c r="C111" s="70" t="n">
+      <c r="C111" s="68" t="n">
         <v>44762</v>
       </c>
-      <c r="D111" s="71" t="n">
+      <c r="D111" s="69" t="n">
         <v>1</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="F111" s="65" t="s">
+      <c r="F111" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="G111" s="28" t="n">
+      <c r="G111" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="H111" s="63" t="n">
+      <c r="H111" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J111" s="8"/>
@@ -8185,7 +8176,7 @@
       <c r="AB111" s="8"/>
     </row>
     <row r="112" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="69" t="s">
+      <c r="A112" s="67" t="s">
         <v>268</v>
       </c>
       <c r="B112" s="10" t="n">
@@ -8197,16 +8188,16 @@
       <c r="D112" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="E112" s="72" t="n">
+      <c r="E112" s="70" t="n">
         <v>27372</v>
       </c>
-      <c r="F112" s="67" t="s">
+      <c r="F112" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="G112" s="28" t="n">
+      <c r="G112" s="26" t="n">
         <v>6</v>
       </c>
-      <c r="H112" s="63" t="n">
+      <c r="H112" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J112" s="8"/>
@@ -8230,26 +8221,26 @@
       <c r="AB112" s="8"/>
     </row>
     <row r="113" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="73" t="s">
+      <c r="A113" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="74" t="n">
+      <c r="B113" s="72" t="n">
         <v>89835</v>
       </c>
-      <c r="C113" s="74" t="n">
+      <c r="C113" s="72" t="n">
         <v>91108</v>
       </c>
-      <c r="D113" s="75" t="n">
+      <c r="D113" s="73" t="n">
         <v>1</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="F113" s="65" t="s">
+      <c r="F113" s="63" t="s">
         <v>274</v>
       </c>
       <c r="G113" s="13"/>
-      <c r="H113" s="63" t="n">
+      <c r="H113" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J113" s="8"/>
@@ -8273,7 +8264,7 @@
       <c r="AB113" s="8"/>
     </row>
     <row r="114" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="64" t="s">
+      <c r="A114" s="62" t="s">
         <v>275</v>
       </c>
       <c r="B114" s="10" t="n">
@@ -8282,17 +8273,17 @@
       <c r="C114" s="10" t="n">
         <v>39152</v>
       </c>
-      <c r="D114" s="17" t="n">
+      <c r="D114" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E114" s="11" t="n">
         <v>101522115</v>
       </c>
-      <c r="F114" s="65" t="s">
+      <c r="F114" s="63" t="s">
         <v>276</v>
       </c>
       <c r="G114" s="13"/>
-      <c r="H114" s="63" t="n">
+      <c r="H114" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J114" s="8"/>
@@ -8316,7 +8307,7 @@
       <c r="AB114" s="8"/>
     </row>
     <row r="115" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="64" t="s">
+      <c r="A115" s="62" t="s">
         <v>277</v>
       </c>
       <c r="B115" s="10" t="n">
@@ -8325,17 +8316,17 @@
       <c r="C115" s="10" t="n">
         <v>19406</v>
       </c>
-      <c r="D115" s="17" t="n">
+      <c r="D115" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="F115" s="65" t="s">
+      <c r="F115" s="63" t="s">
         <v>279</v>
       </c>
       <c r="G115" s="13"/>
-      <c r="H115" s="63" t="n">
+      <c r="H115" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J115" s="8"/>
@@ -8359,7 +8350,7 @@
       <c r="AB115" s="8"/>
     </row>
     <row r="116" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="64" t="s">
+      <c r="A116" s="62" t="s">
         <v>280</v>
       </c>
       <c r="B116" s="10" t="n">
@@ -8368,17 +8359,17 @@
       <c r="C116" s="10" t="n">
         <v>26824</v>
       </c>
-      <c r="D116" s="17" t="n">
+      <c r="D116" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="F116" s="65" t="s">
+      <c r="F116" s="63" t="s">
         <v>282</v>
       </c>
       <c r="G116" s="13"/>
-      <c r="H116" s="63" t="n">
+      <c r="H116" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J116" s="8"/>
@@ -8402,7 +8393,7 @@
       <c r="AB116" s="8"/>
     </row>
     <row r="117" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="64" t="s">
+      <c r="A117" s="62" t="s">
         <v>283</v>
       </c>
       <c r="B117" s="10" t="n">
@@ -8411,17 +8402,17 @@
       <c r="C117" s="10" t="n">
         <v>248225</v>
       </c>
-      <c r="D117" s="17" t="n">
+      <c r="D117" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F117" s="65" t="s">
+      <c r="F117" s="63" t="s">
         <v>285</v>
       </c>
       <c r="G117" s="13"/>
-      <c r="H117" s="63" t="n">
+      <c r="H117" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J117" s="8"/>
@@ -8445,7 +8436,7 @@
       <c r="AB117" s="8"/>
     </row>
     <row r="118" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="64" t="s">
+      <c r="A118" s="62" t="s">
         <v>286</v>
       </c>
       <c r="B118" s="10" t="n">
@@ -8454,17 +8445,17 @@
       <c r="C118" s="10" t="n">
         <v>399994</v>
       </c>
-      <c r="D118" s="17" t="n">
+      <c r="D118" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="F118" s="65" t="s">
+      <c r="F118" s="63" t="s">
         <v>288</v>
       </c>
       <c r="G118" s="13"/>
-      <c r="H118" s="63" t="n">
+      <c r="H118" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J118" s="8"/>
@@ -8488,7 +8479,7 @@
       <c r="AB118" s="8"/>
     </row>
     <row r="119" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="64" t="s">
+      <c r="A119" s="62" t="s">
         <v>289</v>
       </c>
       <c r="B119" s="10" t="n">
@@ -8497,17 +8488,17 @@
       <c r="C119" s="10" t="n">
         <v>80564</v>
       </c>
-      <c r="D119" s="17" t="n">
+      <c r="D119" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E119" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="F119" s="65" t="s">
+      <c r="F119" s="63" t="s">
         <v>291</v>
       </c>
       <c r="G119" s="13"/>
-      <c r="H119" s="63" t="n">
+      <c r="H119" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J119" s="8"/>
@@ -8531,7 +8522,7 @@
       <c r="AB119" s="8"/>
     </row>
     <row r="120" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="64" t="s">
+      <c r="A120" s="62" t="s">
         <v>292</v>
       </c>
       <c r="B120" s="10" t="n">
@@ -8540,17 +8531,17 @@
       <c r="C120" s="10" t="n">
         <v>200409</v>
       </c>
-      <c r="D120" s="17" t="n">
+      <c r="D120" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="F120" s="65" t="s">
+      <c r="F120" s="63" t="s">
         <v>294</v>
       </c>
       <c r="G120" s="13"/>
-      <c r="H120" s="63" t="n">
+      <c r="H120" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J120" s="8"/>
@@ -8574,7 +8565,7 @@
       <c r="AB120" s="8"/>
     </row>
     <row r="121" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="64" t="s">
+      <c r="A121" s="62" t="s">
         <v>295</v>
       </c>
       <c r="B121" s="10" t="n">
@@ -8583,17 +8574,17 @@
       <c r="C121" s="10" t="n">
         <v>346494</v>
       </c>
-      <c r="D121" s="17" t="n">
+      <c r="D121" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="F121" s="65" t="s">
+      <c r="F121" s="63" t="s">
         <v>297</v>
       </c>
       <c r="G121" s="13"/>
-      <c r="H121" s="63" t="n">
+      <c r="H121" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J121" s="8"/>
@@ -8617,7 +8608,7 @@
       <c r="AB121" s="8"/>
     </row>
     <row r="122" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="64" t="s">
+      <c r="A122" s="62" t="s">
         <v>298</v>
       </c>
       <c r="B122" s="10" t="n">
@@ -8626,19 +8617,19 @@
       <c r="C122" s="10" t="n">
         <v>285966</v>
       </c>
-      <c r="D122" s="17" t="n">
+      <c r="D122" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="F122" s="65" t="s">
+      <c r="F122" s="63" t="s">
         <v>300</v>
       </c>
-      <c r="G122" s="28" t="n">
+      <c r="G122" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="H122" s="63" t="n">
+      <c r="H122" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J122" s="8"/>
@@ -8662,7 +8653,7 @@
       <c r="AB122" s="8"/>
     </row>
     <row r="123" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="64" t="s">
+      <c r="A123" s="62" t="s">
         <v>301</v>
       </c>
       <c r="B123" s="10" t="n">
@@ -8671,17 +8662,17 @@
       <c r="C123" s="10" t="n">
         <v>392079</v>
       </c>
-      <c r="D123" s="17" t="n">
+      <c r="D123" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E123" s="11" t="n">
         <v>806</v>
       </c>
-      <c r="F123" s="65" t="s">
+      <c r="F123" s="63" t="s">
         <v>302</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="63" t="n">
+      <c r="H123" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J123" s="8"/>
@@ -8705,7 +8696,7 @@
       <c r="AB123" s="8"/>
     </row>
     <row r="124" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="64" t="s">
+      <c r="A124" s="62" t="s">
         <v>303</v>
       </c>
       <c r="B124" s="10" t="n">
@@ -8714,17 +8705,17 @@
       <c r="C124" s="10" t="n">
         <v>128587</v>
       </c>
-      <c r="D124" s="17" t="n">
+      <c r="D124" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="F124" s="65" t="s">
+      <c r="F124" s="63" t="s">
         <v>305</v>
       </c>
       <c r="G124" s="13"/>
-      <c r="H124" s="63" t="n">
+      <c r="H124" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J124" s="8"/>
@@ -8748,7 +8739,7 @@
       <c r="AB124" s="8"/>
     </row>
     <row r="125" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="64" t="s">
+      <c r="A125" s="62" t="s">
         <v>306</v>
       </c>
       <c r="B125" s="10" t="n">
@@ -8757,17 +8748,17 @@
       <c r="C125" s="10" t="n">
         <v>29110</v>
       </c>
-      <c r="D125" s="17" t="n">
+      <c r="D125" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E125" s="11" t="n">
         <v>2125</v>
       </c>
-      <c r="F125" s="65" t="s">
+      <c r="F125" s="63" t="s">
         <v>307</v>
       </c>
       <c r="G125" s="13"/>
-      <c r="H125" s="63" t="n">
+      <c r="H125" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J125" s="8"/>
@@ -8791,7 +8782,7 @@
       <c r="AB125" s="8"/>
     </row>
     <row r="126" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="64" t="s">
+      <c r="A126" s="62" t="s">
         <v>308</v>
       </c>
       <c r="B126" s="10" t="n">
@@ -8800,17 +8791,17 @@
       <c r="C126" s="10" t="n">
         <v>86232</v>
       </c>
-      <c r="D126" s="17" t="n">
+      <c r="D126" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F126" s="65" t="s">
+      <c r="F126" s="63" t="s">
         <v>310</v>
       </c>
       <c r="G126" s="13"/>
-      <c r="H126" s="63" t="n">
+      <c r="H126" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J126" s="8"/>
@@ -8834,7 +8825,7 @@
       <c r="AB126" s="8"/>
     </row>
     <row r="127" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="64" t="s">
+      <c r="A127" s="62" t="s">
         <v>311</v>
       </c>
       <c r="B127" s="10" t="n">
@@ -8843,17 +8834,17 @@
       <c r="C127" s="10" t="n">
         <v>292491</v>
       </c>
-      <c r="D127" s="17" t="n">
+      <c r="D127" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F127" s="65" t="s">
+      <c r="F127" s="63" t="s">
         <v>313</v>
       </c>
       <c r="G127" s="13"/>
-      <c r="H127" s="63" t="n">
+      <c r="H127" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J127" s="8"/>
@@ -8877,7 +8868,7 @@
       <c r="AB127" s="8"/>
     </row>
     <row r="128" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="64" t="s">
+      <c r="A128" s="62" t="s">
         <v>314</v>
       </c>
       <c r="B128" s="10" t="n">
@@ -8886,17 +8877,17 @@
       <c r="C128" s="10" t="n">
         <v>21197</v>
       </c>
-      <c r="D128" s="17" t="n">
+      <c r="D128" s="16" t="n">
         <v>20</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="F128" s="65" t="s">
+      <c r="F128" s="63" t="s">
         <v>316</v>
       </c>
       <c r="G128" s="13"/>
-      <c r="H128" s="63" t="n">
+      <c r="H128" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J128" s="8"/>
@@ -8920,7 +8911,7 @@
       <c r="AB128" s="8"/>
     </row>
     <row r="129" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="64" t="s">
+      <c r="A129" s="62" t="s">
         <v>317</v>
       </c>
       <c r="B129" s="10" t="n">
@@ -8929,17 +8920,17 @@
       <c r="C129" s="10" t="n">
         <v>255740</v>
       </c>
-      <c r="D129" s="17" t="n">
+      <c r="D129" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F129" s="65" t="s">
+      <c r="F129" s="63" t="s">
         <v>319</v>
       </c>
       <c r="G129" s="13"/>
-      <c r="H129" s="63" t="n">
+      <c r="H129" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J129" s="8"/>
@@ -8963,7 +8954,7 @@
       <c r="AB129" s="8"/>
     </row>
     <row r="130" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="66" t="s">
+      <c r="A130" s="64" t="s">
         <v>320</v>
       </c>
       <c r="B130" s="10" t="n">
@@ -8972,7 +8963,7 @@
       <c r="C130" s="10" t="n">
         <v>570260</v>
       </c>
-      <c r="D130" s="17" t="n">
+      <c r="D130" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E130" s="11" t="n">
@@ -8982,7 +8973,7 @@
         <v>321</v>
       </c>
       <c r="G130" s="13"/>
-      <c r="H130" s="63" t="n">
+      <c r="H130" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J130" s="8"/>
@@ -9006,7 +8997,7 @@
       <c r="AB130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="16" t="s">
+      <c r="A131" s="15" t="s">
         <v>189</v>
       </c>
       <c r="B131" s="10" t="n">
@@ -9015,7 +9006,7 @@
       <c r="C131" s="10" t="n">
         <v>29360</v>
       </c>
-      <c r="D131" s="17" t="n">
+      <c r="D131" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E131" s="11" t="n">
@@ -9024,10 +9015,10 @@
       <c r="F131" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="G131" s="28" t="n">
+      <c r="G131" s="26" t="n">
         <v>12</v>
       </c>
-      <c r="H131" s="63" t="n">
+      <c r="H131" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J131" s="8"/>
@@ -9051,7 +9042,7 @@
       <c r="AB131" s="8"/>
     </row>
     <row r="132" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="66" t="s">
+      <c r="A132" s="64" t="s">
         <v>298</v>
       </c>
       <c r="B132" s="10" t="n">
@@ -9060,19 +9051,19 @@
       <c r="C132" s="10" t="n">
         <v>25329</v>
       </c>
-      <c r="D132" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="E132" s="11" t="n">
-        <v>103095559</v>
+      <c r="D132" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" s="11" t="s">
+        <v>323</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="G132" s="28" t="n">
+        <v>324</v>
+      </c>
+      <c r="G132" s="26" t="n">
         <v>13</v>
       </c>
-      <c r="H132" s="63" t="n">
+      <c r="H132" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J132" s="8"/>
@@ -9096,8 +9087,8 @@
       <c r="AB132" s="8"/>
     </row>
     <row r="133" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="66" t="s">
-        <v>324</v>
+      <c r="A133" s="64" t="s">
+        <v>325</v>
       </c>
       <c r="B133" s="10" t="n">
         <v>43073</v>
@@ -9105,17 +9096,17 @@
       <c r="C133" s="10" t="n">
         <v>43899</v>
       </c>
-      <c r="D133" s="17" t="n">
+      <c r="D133" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E133" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G133" s="13"/>
-      <c r="H133" s="63" t="n">
+      <c r="H133" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J133" s="8"/>
@@ -9139,8 +9130,8 @@
       <c r="AB133" s="8"/>
     </row>
     <row r="134" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="76" t="s">
-        <v>327</v>
+      <c r="A134" s="74" t="s">
+        <v>328</v>
       </c>
       <c r="B134" s="10" t="n">
         <v>59063</v>
@@ -9148,17 +9139,17 @@
       <c r="C134" s="10" t="n">
         <v>59424</v>
       </c>
-      <c r="D134" s="17" t="n">
+      <c r="D134" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E134" s="11" t="n">
         <v>4616</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G134" s="13"/>
-      <c r="H134" s="63" t="n">
+      <c r="H134" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J134" s="8"/>
@@ -9182,8 +9173,8 @@
       <c r="AB134" s="8"/>
     </row>
     <row r="135" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="76" t="s">
-        <v>329</v>
+      <c r="A135" s="74" t="s">
+        <v>330</v>
       </c>
       <c r="B135" s="10" t="n">
         <v>65819</v>
@@ -9191,17 +9182,17 @@
       <c r="C135" s="10" t="n">
         <v>67625</v>
       </c>
-      <c r="D135" s="17" t="n">
+      <c r="D135" s="16" t="n">
         <v>20</v>
       </c>
       <c r="E135" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F135" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="F135" s="12" t="s">
-        <v>329</v>
-      </c>
       <c r="G135" s="13"/>
-      <c r="H135" s="63" t="n">
+      <c r="H135" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J135" s="8"/>
@@ -9225,8 +9216,8 @@
       <c r="AB135" s="8"/>
     </row>
     <row r="136" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="76" t="s">
-        <v>331</v>
+      <c r="A136" s="74" t="s">
+        <v>332</v>
       </c>
       <c r="B136" s="10" t="n">
         <v>56518</v>
@@ -9234,19 +9225,19 @@
       <c r="C136" s="10" t="n">
         <v>61334</v>
       </c>
-      <c r="D136" s="17" t="n">
+      <c r="D136" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="G136" s="28" t="n">
+        <v>334</v>
+      </c>
+      <c r="G136" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="H136" s="63" t="n">
+      <c r="H136" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J136" s="8"/>
@@ -9271,7 +9262,7 @@
     </row>
     <row r="137" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B137" s="10" t="n">
         <v>15936</v>
@@ -9279,17 +9270,17 @@
       <c r="C137" s="10" t="n">
         <v>16572</v>
       </c>
-      <c r="D137" s="17" t="n">
+      <c r="D137" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E137" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F137" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="F137" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="G137" s="0"/>
-      <c r="H137" s="63" t="n">
+      <c r="H137" s="61" t="n">
         <v>5</v>
       </c>
       <c r="J137" s="8"/>
@@ -9313,8 +9304,8 @@
       <c r="AB137" s="8"/>
     </row>
     <row r="138" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="76" t="s">
-        <v>331</v>
+      <c r="A138" s="74" t="s">
+        <v>332</v>
       </c>
       <c r="B138" s="10" t="n">
         <v>11012</v>
@@ -9322,22 +9313,22 @@
       <c r="C138" s="10" t="n">
         <v>11994</v>
       </c>
-      <c r="D138" s="17" t="n">
+      <c r="D138" s="16" t="n">
         <v>1</v>
       </c>
       <c r="E138" s="11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="G138" s="28" t="n">
+        <v>338</v>
+      </c>
+      <c r="G138" s="26" t="n">
         <v>14</v>
       </c>
-      <c r="H138" s="63" t="n">
+      <c r="H138" s="61" t="n">
         <v>5</v>
       </c>
-      <c r="I138" s="15" t="s">
+      <c r="I138" s="8" t="s">
         <v>239</v>
       </c>
       <c r="J138" s="8"/>
@@ -9391,30 +9382,30 @@
       <c r="AB139" s="8"/>
     </row>
     <row r="140" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="35" t="s">
-        <v>338</v>
-      </c>
-      <c r="B140" s="33" t="n">
+      <c r="A140" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B140" s="31" t="n">
         <v>15113</v>
       </c>
-      <c r="C140" s="33" t="n">
+      <c r="C140" s="31" t="n">
         <v>15327</v>
       </c>
-      <c r="D140" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E140" s="31" t="n">
+      <c r="D140" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" s="29" t="n">
         <v>2262538</v>
       </c>
-      <c r="F140" s="27" t="s">
-        <v>339</v>
+      <c r="F140" s="25" t="s">
+        <v>340</v>
       </c>
       <c r="G140" s="13"/>
-      <c r="H140" s="77" t="n">
+      <c r="H140" s="75" t="n">
         <v>6</v>
       </c>
-      <c r="I140" s="15" t="s">
-        <v>340</v>
+      <c r="I140" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="J140" s="8"/>
       <c r="K140" s="8"/>
@@ -9437,26 +9428,26 @@
       <c r="AB140" s="8"/>
     </row>
     <row r="141" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="B141" s="33" t="n">
+      <c r="A141" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" s="31" t="n">
         <v>45710</v>
       </c>
-      <c r="C141" s="33" t="n">
+      <c r="C141" s="31" t="n">
         <v>45710</v>
       </c>
-      <c r="D141" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E141" s="31" t="n">
+      <c r="D141" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E141" s="29" t="n">
         <v>5521045</v>
       </c>
-      <c r="F141" s="27" t="s">
-        <v>342</v>
+      <c r="F141" s="25" t="s">
+        <v>343</v>
       </c>
       <c r="G141" s="13"/>
-      <c r="H141" s="77" t="n">
+      <c r="H141" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J141" s="8"/>
@@ -9480,26 +9471,26 @@
       <c r="AB141" s="8"/>
     </row>
     <row r="142" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="35" t="s">
-        <v>343</v>
-      </c>
-      <c r="B142" s="33" t="n">
+      <c r="A142" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="B142" s="31" t="n">
         <v>36968</v>
       </c>
-      <c r="C142" s="33" t="n">
+      <c r="C142" s="31" t="n">
         <v>37314</v>
       </c>
-      <c r="D142" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" s="31" t="n">
+      <c r="D142" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E142" s="29" t="n">
         <v>2261340</v>
       </c>
-      <c r="F142" s="27" t="s">
-        <v>344</v>
+      <c r="F142" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="G142" s="13"/>
-      <c r="H142" s="77" t="n">
+      <c r="H142" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J142" s="8"/>
@@ -9523,26 +9514,26 @@
       <c r="AB142" s="8"/>
     </row>
     <row r="143" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="35" t="s">
-        <v>345</v>
-      </c>
-      <c r="B143" s="33" t="n">
+      <c r="A143" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="B143" s="31" t="n">
         <v>46062</v>
       </c>
-      <c r="C143" s="33" t="n">
+      <c r="C143" s="31" t="n">
         <v>46742</v>
       </c>
-      <c r="D143" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E143" s="31" t="n">
+      <c r="D143" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" s="29" t="n">
         <v>5510929</v>
       </c>
-      <c r="F143" s="27" t="s">
-        <v>346</v>
+      <c r="F143" s="25" t="s">
+        <v>347</v>
       </c>
       <c r="G143" s="13"/>
-      <c r="H143" s="77" t="n">
+      <c r="H143" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J143" s="8"/>
@@ -9566,26 +9557,26 @@
       <c r="AB143" s="8"/>
     </row>
     <row r="144" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="35" t="s">
-        <v>347</v>
-      </c>
-      <c r="B144" s="33" t="n">
+      <c r="A144" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="B144" s="31" t="n">
         <v>69098</v>
       </c>
-      <c r="C144" s="33" t="n">
+      <c r="C144" s="31" t="n">
         <v>69463</v>
       </c>
-      <c r="D144" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E144" s="31" t="n">
+      <c r="D144" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E144" s="29" t="n">
         <v>5511505</v>
       </c>
-      <c r="F144" s="27" t="s">
-        <v>348</v>
+      <c r="F144" s="25" t="s">
+        <v>349</v>
       </c>
       <c r="G144" s="13"/>
-      <c r="H144" s="77" t="n">
+      <c r="H144" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J144" s="8"/>
@@ -9609,26 +9600,26 @@
       <c r="AB144" s="8"/>
     </row>
     <row r="145" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="35" t="s">
-        <v>349</v>
-      </c>
-      <c r="B145" s="33" t="n">
+      <c r="A145" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B145" s="31" t="n">
         <v>39205</v>
       </c>
-      <c r="C145" s="33" t="n">
+      <c r="C145" s="31" t="n">
         <v>39393</v>
       </c>
-      <c r="D145" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E145" s="31" t="n">
+      <c r="D145" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E145" s="29" t="n">
         <v>5510311</v>
       </c>
-      <c r="F145" s="27" t="s">
-        <v>350</v>
+      <c r="F145" s="25" t="s">
+        <v>351</v>
       </c>
       <c r="G145" s="13"/>
-      <c r="H145" s="77" t="n">
+      <c r="H145" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J145" s="8"/>
@@ -9652,26 +9643,26 @@
       <c r="AB145" s="8"/>
     </row>
     <row r="146" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="B146" s="33" t="n">
+      <c r="A146" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="B146" s="31" t="n">
         <v>49837</v>
       </c>
-      <c r="C146" s="33" t="n">
+      <c r="C146" s="31" t="n">
         <v>50086</v>
       </c>
-      <c r="D146" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E146" s="31" t="n">
+      <c r="D146" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E146" s="29" t="n">
         <v>5510177</v>
       </c>
-      <c r="F146" s="27" t="s">
-        <v>352</v>
+      <c r="F146" s="25" t="s">
+        <v>353</v>
       </c>
       <c r="G146" s="13"/>
-      <c r="H146" s="77" t="n">
+      <c r="H146" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J146" s="8"/>
@@ -9695,26 +9686,26 @@
       <c r="AB146" s="8"/>
     </row>
     <row r="147" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="B147" s="33" t="n">
+      <c r="A147" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="B147" s="31" t="n">
         <v>89795</v>
       </c>
-      <c r="C147" s="33" t="n">
+      <c r="C147" s="31" t="n">
         <v>90103</v>
       </c>
-      <c r="D147" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E147" s="31" t="n">
+      <c r="D147" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E147" s="29" t="n">
         <v>2262535</v>
       </c>
-      <c r="F147" s="27" t="s">
-        <v>354</v>
+      <c r="F147" s="25" t="s">
+        <v>355</v>
       </c>
       <c r="G147" s="13"/>
-      <c r="H147" s="77" t="n">
+      <c r="H147" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J147" s="8"/>
@@ -9738,26 +9729,26 @@
       <c r="AB147" s="8"/>
     </row>
     <row r="148" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="B148" s="33" t="n">
+      <c r="A148" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="B148" s="31" t="n">
         <v>45620</v>
       </c>
-      <c r="C148" s="33" t="n">
+      <c r="C148" s="31" t="n">
         <v>46428</v>
       </c>
-      <c r="D148" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E148" s="31" t="s">
-        <v>356</v>
-      </c>
-      <c r="F148" s="27" t="s">
+      <c r="D148" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E148" s="29" t="s">
         <v>357</v>
       </c>
+      <c r="F148" s="25" t="s">
+        <v>358</v>
+      </c>
       <c r="G148" s="13"/>
-      <c r="H148" s="77" t="n">
+      <c r="H148" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J148" s="8"/>
@@ -9781,28 +9772,28 @@
       <c r="AB148" s="8"/>
     </row>
     <row r="149" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="B149" s="33" t="n">
+      <c r="A149" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B149" s="31" t="n">
         <v>285951</v>
       </c>
-      <c r="C149" s="33" t="n">
+      <c r="C149" s="31" t="n">
         <v>296809</v>
       </c>
-      <c r="D149" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E149" s="31" t="s">
-        <v>359</v>
-      </c>
-      <c r="F149" s="27" t="s">
+      <c r="D149" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E149" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="G149" s="28" t="n">
+      <c r="F149" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="G149" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="H149" s="77" t="n">
+      <c r="H149" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J149" s="8"/>
@@ -9826,28 +9817,28 @@
       <c r="AB149" s="8"/>
     </row>
     <row r="150" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="B150" s="78" t="n">
+      <c r="A150" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B150" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="C150" s="78" t="n">
+      <c r="C150" s="76" t="n">
         <v>304</v>
       </c>
-      <c r="D150" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E150" s="79" t="s">
+      <c r="D150" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E150" s="77" t="s">
+        <v>362</v>
+      </c>
+      <c r="F150" s="25" t="s">
         <v>361</v>
       </c>
-      <c r="F150" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G150" s="28" t="n">
+      <c r="G150" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="H150" s="77" t="n">
+      <c r="H150" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J150" s="8"/>
@@ -9871,28 +9862,28 @@
       <c r="AB150" s="8"/>
     </row>
     <row r="151" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="B151" s="78" t="n">
+      <c r="A151" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="B151" s="76" t="n">
         <v>0</v>
       </c>
-      <c r="C151" s="78" t="n">
+      <c r="C151" s="76" t="n">
         <v>283</v>
       </c>
-      <c r="D151" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E151" s="31" t="s">
-        <v>362</v>
-      </c>
-      <c r="F151" s="27" t="s">
-        <v>360</v>
-      </c>
-      <c r="G151" s="28" t="n">
+      <c r="D151" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>363</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>361</v>
+      </c>
+      <c r="G151" s="26" t="n">
         <v>7</v>
       </c>
-      <c r="H151" s="77" t="n">
+      <c r="H151" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J151" s="8"/>
@@ -9916,26 +9907,26 @@
       <c r="AB151" s="8"/>
     </row>
     <row r="152" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="40" t="s">
-        <v>363</v>
-      </c>
-      <c r="B152" s="78" t="n">
+      <c r="A152" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="B152" s="76" t="n">
         <v>27904</v>
       </c>
-      <c r="C152" s="78" t="n">
+      <c r="C152" s="76" t="n">
         <v>28244</v>
       </c>
-      <c r="D152" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E152" s="31" t="n">
+      <c r="D152" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" s="29" t="n">
         <v>5510402</v>
       </c>
-      <c r="F152" s="27" t="s">
-        <v>364</v>
+      <c r="F152" s="25" t="s">
+        <v>365</v>
       </c>
       <c r="G152" s="13"/>
-      <c r="H152" s="77" t="n">
+      <c r="H152" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J152" s="8"/>
@@ -9959,26 +9950,26 @@
       <c r="AB152" s="8"/>
     </row>
     <row r="153" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="40" t="s">
-        <v>365</v>
-      </c>
-      <c r="B153" s="78" t="n">
+      <c r="A153" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="B153" s="76" t="n">
         <v>37994</v>
       </c>
-      <c r="C153" s="78" t="n">
+      <c r="C153" s="76" t="n">
         <v>38322</v>
       </c>
-      <c r="D153" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E153" s="31" t="n">
+      <c r="D153" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E153" s="29" t="n">
         <v>5509256</v>
       </c>
-      <c r="F153" s="27" t="s">
-        <v>366</v>
+      <c r="F153" s="25" t="s">
+        <v>367</v>
       </c>
       <c r="G153" s="13"/>
-      <c r="H153" s="77" t="n">
+      <c r="H153" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J153" s="8"/>
@@ -10002,26 +9993,26 @@
       <c r="AB153" s="8"/>
     </row>
     <row r="154" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="40" t="s">
-        <v>367</v>
-      </c>
-      <c r="B154" s="78" t="n">
+      <c r="A154" s="38" t="s">
+        <v>368</v>
+      </c>
+      <c r="B154" s="76" t="n">
         <v>33553</v>
       </c>
-      <c r="C154" s="78" t="n">
+      <c r="C154" s="76" t="n">
         <v>34057</v>
       </c>
-      <c r="D154" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E154" s="31" t="n">
+      <c r="D154" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E154" s="29" t="n">
         <v>5509265</v>
       </c>
-      <c r="F154" s="27" t="s">
-        <v>368</v>
+      <c r="F154" s="25" t="s">
+        <v>369</v>
       </c>
       <c r="G154" s="13"/>
-      <c r="H154" s="77" t="n">
+      <c r="H154" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J154" s="8"/>
@@ -10045,26 +10036,26 @@
       <c r="AB154" s="8"/>
     </row>
     <row r="155" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="B155" s="78" t="n">
+      <c r="A155" s="38" t="s">
+        <v>370</v>
+      </c>
+      <c r="B155" s="76" t="n">
         <v>23110</v>
       </c>
-      <c r="C155" s="78" t="n">
+      <c r="C155" s="76" t="n">
         <v>23350</v>
       </c>
-      <c r="D155" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E155" s="31" t="n">
+      <c r="D155" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E155" s="29" t="n">
         <v>5518342</v>
       </c>
-      <c r="F155" s="27" t="s">
-        <v>370</v>
+      <c r="F155" s="25" t="s">
+        <v>371</v>
       </c>
       <c r="G155" s="13"/>
-      <c r="H155" s="77" t="n">
+      <c r="H155" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J155" s="8"/>
@@ -10088,26 +10079,26 @@
       <c r="AB155" s="8"/>
     </row>
     <row r="156" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="B156" s="78" t="n">
+      <c r="A156" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="B156" s="76" t="n">
         <v>25687</v>
       </c>
-      <c r="C156" s="78" t="n">
+      <c r="C156" s="76" t="n">
         <v>25976</v>
       </c>
-      <c r="D156" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E156" s="31" t="n">
+      <c r="D156" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E156" s="29" t="n">
         <v>2262004</v>
       </c>
-      <c r="F156" s="27" t="s">
-        <v>372</v>
+      <c r="F156" s="25" t="s">
+        <v>373</v>
       </c>
       <c r="G156" s="13"/>
-      <c r="H156" s="77" t="n">
+      <c r="H156" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J156" s="8"/>
@@ -10131,26 +10122,26 @@
       <c r="AB156" s="8"/>
     </row>
     <row r="157" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="40" t="s">
-        <v>373</v>
-      </c>
-      <c r="B157" s="78" t="n">
+      <c r="A157" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="B157" s="76" t="n">
         <v>23007</v>
       </c>
-      <c r="C157" s="78" t="n">
+      <c r="C157" s="76" t="n">
         <v>23356</v>
       </c>
-      <c r="D157" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E157" s="31" t="n">
+      <c r="D157" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E157" s="29" t="n">
         <v>2262573</v>
       </c>
-      <c r="F157" s="27" t="s">
-        <v>374</v>
+      <c r="F157" s="25" t="s">
+        <v>375</v>
       </c>
       <c r="G157" s="13"/>
-      <c r="H157" s="77" t="n">
+      <c r="H157" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J157" s="8"/>
@@ -10174,26 +10165,26 @@
       <c r="AB157" s="8"/>
     </row>
     <row r="158" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="B158" s="78" t="n">
+      <c r="A158" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="B158" s="76" t="n">
         <v>62445</v>
       </c>
-      <c r="C158" s="78" t="n">
+      <c r="C158" s="76" t="n">
         <v>62872</v>
       </c>
-      <c r="D158" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E158" s="31" t="n">
+      <c r="D158" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E158" s="29" t="n">
         <v>2262504</v>
       </c>
-      <c r="F158" s="27" t="s">
-        <v>376</v>
+      <c r="F158" s="25" t="s">
+        <v>377</v>
       </c>
       <c r="G158" s="13"/>
-      <c r="H158" s="77" t="n">
+      <c r="H158" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J158" s="8"/>
@@ -10217,26 +10208,26 @@
       <c r="AB158" s="8"/>
     </row>
     <row r="159" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="40" t="s">
-        <v>377</v>
-      </c>
-      <c r="B159" s="78" t="n">
+      <c r="A159" s="38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B159" s="76" t="n">
         <v>14922</v>
       </c>
-      <c r="C159" s="78" t="n">
+      <c r="C159" s="76" t="n">
         <v>15065</v>
       </c>
-      <c r="D159" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E159" s="31" t="n">
+      <c r="D159" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E159" s="29" t="n">
         <v>282333</v>
       </c>
-      <c r="F159" s="27" t="s">
-        <v>378</v>
+      <c r="F159" s="25" t="s">
+        <v>379</v>
       </c>
       <c r="G159" s="13"/>
-      <c r="H159" s="77" t="n">
+      <c r="H159" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J159" s="8"/>
@@ -10260,26 +10251,26 @@
       <c r="AB159" s="8"/>
     </row>
     <row r="160" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="80" t="s">
-        <v>379</v>
-      </c>
-      <c r="B160" s="81" t="n">
+      <c r="A160" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="B160" s="79" t="n">
         <v>49820</v>
       </c>
-      <c r="C160" s="81" t="n">
+      <c r="C160" s="79" t="n">
         <v>50297</v>
       </c>
-      <c r="D160" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E160" s="31" t="n">
+      <c r="D160" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E160" s="29" t="n">
         <v>2261380</v>
       </c>
-      <c r="F160" s="27" t="s">
-        <v>380</v>
+      <c r="F160" s="25" t="s">
+        <v>381</v>
       </c>
       <c r="G160" s="13"/>
-      <c r="H160" s="77" t="n">
+      <c r="H160" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J160" s="8"/>
@@ -10303,26 +10294,26 @@
       <c r="AB160" s="8"/>
     </row>
     <row r="161" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="B161" s="78" t="n">
+      <c r="A161" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="B161" s="76" t="n">
         <v>42066</v>
       </c>
-      <c r="C161" s="78" t="n">
+      <c r="C161" s="76" t="n">
         <v>42066</v>
       </c>
-      <c r="D161" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E161" s="31" t="n">
+      <c r="D161" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E161" s="29" t="n">
         <v>3263</v>
       </c>
-      <c r="F161" s="27" t="s">
-        <v>382</v>
+      <c r="F161" s="25" t="s">
+        <v>383</v>
       </c>
       <c r="G161" s="13"/>
-      <c r="H161" s="77" t="n">
+      <c r="H161" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J161" s="8"/>
@@ -10346,26 +10337,26 @@
       <c r="AB161" s="8"/>
     </row>
     <row r="162" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="82" t="s">
-        <v>383</v>
-      </c>
-      <c r="B162" s="83" t="n">
+      <c r="A162" s="80" t="s">
+        <v>384</v>
+      </c>
+      <c r="B162" s="81" t="n">
         <v>802</v>
       </c>
-      <c r="C162" s="83" t="n">
+      <c r="C162" s="81" t="n">
         <v>802</v>
       </c>
-      <c r="D162" s="84" t="n">
-        <v>1</v>
-      </c>
-      <c r="E162" s="85" t="s">
-        <v>384</v>
-      </c>
-      <c r="F162" s="86" t="s">
+      <c r="D162" s="82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E162" s="83" t="s">
         <v>385</v>
       </c>
+      <c r="F162" s="84" t="s">
+        <v>386</v>
+      </c>
       <c r="G162" s="13"/>
-      <c r="H162" s="77" t="n">
+      <c r="H162" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J162" s="8"/>
@@ -10389,26 +10380,26 @@
       <c r="AB162" s="8"/>
     </row>
     <row r="163" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="40" t="s">
-        <v>386</v>
-      </c>
-      <c r="B163" s="78" t="n">
+      <c r="A163" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="B163" s="76" t="n">
         <v>10060</v>
       </c>
-      <c r="C163" s="78" t="n">
+      <c r="C163" s="76" t="n">
         <v>10472</v>
       </c>
-      <c r="D163" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E163" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="F163" s="27" t="s">
+      <c r="D163" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="29" t="s">
         <v>388</v>
       </c>
+      <c r="F163" s="25" t="s">
+        <v>389</v>
+      </c>
       <c r="G163" s="13"/>
-      <c r="H163" s="77" t="n">
+      <c r="H163" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J163" s="8"/>
@@ -10432,26 +10423,26 @@
       <c r="AB163" s="8"/>
     </row>
     <row r="164" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="B164" s="78" t="n">
+      <c r="A164" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="B164" s="76" t="n">
         <v>109278</v>
       </c>
-      <c r="C164" s="78" t="n">
+      <c r="C164" s="76" t="n">
         <v>109812</v>
       </c>
-      <c r="D164" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E164" s="31" t="s">
-        <v>390</v>
-      </c>
-      <c r="F164" s="27" t="s">
+      <c r="D164" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" s="29" t="s">
         <v>391</v>
       </c>
+      <c r="F164" s="25" t="s">
+        <v>392</v>
+      </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="77" t="n">
+      <c r="H164" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J164" s="8"/>
@@ -10475,26 +10466,26 @@
       <c r="AB164" s="8"/>
     </row>
     <row r="165" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B165" s="78" t="n">
+      <c r="A165" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="B165" s="76" t="n">
         <v>255872</v>
       </c>
-      <c r="C165" s="78" t="n">
+      <c r="C165" s="76" t="n">
         <v>257665</v>
       </c>
-      <c r="D165" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E165" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="F165" s="27" t="s">
+      <c r="D165" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E165" s="29" t="s">
         <v>394</v>
       </c>
+      <c r="F165" s="25" t="s">
+        <v>395</v>
+      </c>
       <c r="G165" s="13"/>
-      <c r="H165" s="77" t="n">
+      <c r="H165" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J165" s="8"/>
@@ -10518,26 +10509,26 @@
       <c r="AB165" s="8"/>
     </row>
     <row r="166" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="40" t="s">
-        <v>395</v>
-      </c>
-      <c r="B166" s="78" t="n">
+      <c r="A166" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="B166" s="76" t="n">
         <v>68985</v>
       </c>
-      <c r="C166" s="78" t="n">
+      <c r="C166" s="76" t="n">
         <v>70329</v>
       </c>
-      <c r="D166" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E166" s="31" t="n">
+      <c r="D166" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E166" s="29" t="n">
         <v>2261167</v>
       </c>
-      <c r="F166" s="27" t="s">
-        <v>396</v>
+      <c r="F166" s="25" t="s">
+        <v>397</v>
       </c>
       <c r="G166" s="13"/>
-      <c r="H166" s="77" t="n">
+      <c r="H166" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J166" s="8"/>
@@ -10561,26 +10552,26 @@
       <c r="AB166" s="8"/>
     </row>
     <row r="167" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="40" t="s">
-        <v>397</v>
-      </c>
-      <c r="B167" s="78" t="n">
+      <c r="A167" s="38" t="s">
+        <v>398</v>
+      </c>
+      <c r="B167" s="76" t="n">
         <v>3896</v>
       </c>
-      <c r="C167" s="78" t="n">
+      <c r="C167" s="76" t="n">
         <v>4202</v>
       </c>
-      <c r="D167" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E167" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="F167" s="27" t="s">
+      <c r="D167" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" s="29" t="s">
         <v>399</v>
       </c>
+      <c r="F167" s="25" t="s">
+        <v>400</v>
+      </c>
       <c r="G167" s="13"/>
-      <c r="H167" s="77" t="n">
+      <c r="H167" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J167" s="8"/>
@@ -10604,26 +10595,26 @@
       <c r="AB167" s="8"/>
     </row>
     <row r="168" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="40" t="s">
-        <v>400</v>
-      </c>
-      <c r="B168" s="78" t="n">
+      <c r="A168" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="B168" s="76" t="n">
         <v>13812</v>
       </c>
-      <c r="C168" s="78" t="n">
+      <c r="C168" s="76" t="n">
         <v>13858</v>
       </c>
-      <c r="D168" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E168" s="31" t="n">
+      <c r="D168" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E168" s="29" t="n">
         <v>370293</v>
       </c>
-      <c r="F168" s="27" t="s">
-        <v>401</v>
+      <c r="F168" s="25" t="s">
+        <v>402</v>
       </c>
       <c r="G168" s="13"/>
-      <c r="H168" s="77" t="n">
+      <c r="H168" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J168" s="8"/>
@@ -10647,26 +10638,26 @@
       <c r="AB168" s="8"/>
     </row>
     <row r="169" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="40" t="s">
-        <v>402</v>
-      </c>
-      <c r="B169" s="78" t="n">
+      <c r="A169" s="38" t="s">
+        <v>403</v>
+      </c>
+      <c r="B169" s="76" t="n">
         <v>6544</v>
       </c>
-      <c r="C169" s="78" t="n">
+      <c r="C169" s="76" t="n">
         <v>6544</v>
       </c>
-      <c r="D169" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E169" s="31" t="n">
+      <c r="D169" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E169" s="29" t="n">
         <v>1940</v>
       </c>
-      <c r="F169" s="27" t="s">
-        <v>403</v>
+      <c r="F169" s="25" t="s">
+        <v>404</v>
       </c>
       <c r="G169" s="13"/>
-      <c r="H169" s="77" t="n">
+      <c r="H169" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J169" s="8"/>
@@ -10690,29 +10681,29 @@
       <c r="AB169" s="8"/>
     </row>
     <row r="170" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="39" t="s">
-        <v>404</v>
-      </c>
-      <c r="B170" s="36" t="n">
+      <c r="A170" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B170" s="34" t="n">
         <v>17957</v>
       </c>
-      <c r="C170" s="36" t="n">
+      <c r="C170" s="34" t="n">
         <v>18329</v>
       </c>
-      <c r="D170" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E170" s="31" t="s">
-        <v>405</v>
-      </c>
-      <c r="F170" s="27" t="s">
+      <c r="D170" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E170" s="29" t="s">
         <v>406</v>
       </c>
+      <c r="F170" s="25" t="s">
+        <v>407</v>
+      </c>
       <c r="G170" s="13"/>
-      <c r="H170" s="77" t="n">
+      <c r="H170" s="75" t="n">
         <v>6</v>
       </c>
-      <c r="I170" s="15"/>
+      <c r="I170" s="8"/>
       <c r="J170" s="8"/>
       <c r="K170" s="8"/>
       <c r="L170" s="8"/>
@@ -10734,26 +10725,26 @@
       <c r="AB170" s="8"/>
     </row>
     <row r="171" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="40" t="s">
-        <v>407</v>
-      </c>
-      <c r="B171" s="48" t="n">
+      <c r="A171" s="38" t="s">
+        <v>408</v>
+      </c>
+      <c r="B171" s="46" t="n">
         <v>4371</v>
       </c>
-      <c r="C171" s="48" t="n">
+      <c r="C171" s="46" t="n">
         <v>4459</v>
       </c>
-      <c r="D171" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E171" s="31" t="s">
-        <v>408</v>
-      </c>
-      <c r="F171" s="27" t="s">
+      <c r="D171" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E171" s="29" t="s">
         <v>409</v>
       </c>
+      <c r="F171" s="25" t="s">
+        <v>410</v>
+      </c>
       <c r="G171" s="13"/>
-      <c r="H171" s="77" t="n">
+      <c r="H171" s="75" t="n">
         <v>6</v>
       </c>
       <c r="J171" s="8"/>
@@ -10777,30 +10768,30 @@
       <c r="AB171" s="8"/>
     </row>
     <row r="172" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="39" t="s">
-        <v>410</v>
-      </c>
-      <c r="B172" s="36" t="n">
+      <c r="A172" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="B172" s="34" t="n">
         <v>9350</v>
       </c>
-      <c r="C172" s="36" t="n">
+      <c r="C172" s="34" t="n">
         <v>9446</v>
       </c>
-      <c r="D172" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E172" s="31" t="s">
-        <v>411</v>
-      </c>
-      <c r="F172" s="27" t="s">
+      <c r="D172" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E172" s="29" t="s">
         <v>412</v>
       </c>
+      <c r="F172" s="25" t="s">
+        <v>413</v>
+      </c>
       <c r="G172" s="13"/>
-      <c r="H172" s="77" t="n">
+      <c r="H172" s="75" t="n">
         <v>6</v>
       </c>
-      <c r="I172" s="15" t="s">
-        <v>340</v>
+      <c r="I172" s="8" t="s">
+        <v>341</v>
       </c>
       <c r="J172" s="8"/>
       <c r="K172" s="8"/>
@@ -10853,30 +10844,30 @@
       <c r="AB173" s="8"/>
     </row>
     <row r="174" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="80" t="s">
-        <v>413</v>
-      </c>
-      <c r="B174" s="48" t="n">
+      <c r="A174" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="B174" s="46" t="n">
         <v>44901</v>
       </c>
-      <c r="C174" s="48" t="n">
+      <c r="C174" s="46" t="n">
         <v>46998</v>
       </c>
-      <c r="D174" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E174" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="F174" s="27" t="s">
+      <c r="D174" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E174" s="29" t="s">
         <v>415</v>
       </c>
+      <c r="F174" s="25" t="s">
+        <v>416</v>
+      </c>
       <c r="G174" s="13"/>
-      <c r="H174" s="87" t="n">
+      <c r="H174" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="I174" s="15" t="s">
-        <v>416</v>
+      <c r="I174" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="J174" s="8"/>
       <c r="K174" s="8"/>
@@ -10899,28 +10890,28 @@
       <c r="AB174" s="8"/>
     </row>
     <row r="175" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="88" t="s">
-        <v>417</v>
-      </c>
-      <c r="B175" s="89" t="n">
+      <c r="A175" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="B175" s="87" t="n">
         <v>50395</v>
       </c>
-      <c r="C175" s="89" t="n">
+      <c r="C175" s="87" t="n">
         <v>50728</v>
       </c>
-      <c r="D175" s="89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E175" s="72" t="n">
+      <c r="D175" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" s="70" t="n">
         <v>3855</v>
       </c>
-      <c r="F175" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="G175" s="28" t="n">
+      <c r="F175" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="G175" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="H175" s="87" t="n">
+      <c r="H175" s="85" t="n">
         <v>7</v>
       </c>
       <c r="J175" s="8"/>
@@ -10944,28 +10935,28 @@
       <c r="AB175" s="8"/>
     </row>
     <row r="176" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="88" t="s">
-        <v>417</v>
-      </c>
-      <c r="B176" s="89" t="n">
+      <c r="A176" s="86" t="s">
+        <v>418</v>
+      </c>
+      <c r="B176" s="87" t="n">
         <v>113898</v>
       </c>
-      <c r="C176" s="89" t="n">
+      <c r="C176" s="87" t="n">
         <v>116620</v>
       </c>
-      <c r="D176" s="89" t="n">
-        <v>1</v>
-      </c>
-      <c r="E176" s="31" t="s">
+      <c r="D176" s="87" t="n">
+        <v>1</v>
+      </c>
+      <c r="E176" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="F176" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="F176" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="G176" s="28" t="n">
+      <c r="G176" s="26" t="n">
         <v>8</v>
       </c>
-      <c r="H176" s="87" t="n">
+      <c r="H176" s="85" t="n">
         <v>7</v>
       </c>
       <c r="J176" s="8"/>
@@ -10989,26 +10980,26 @@
       <c r="AB176" s="8"/>
     </row>
     <row r="177" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="40" t="s">
-        <v>420</v>
-      </c>
-      <c r="B177" s="48" t="n">
+      <c r="A177" s="38" t="s">
+        <v>421</v>
+      </c>
+      <c r="B177" s="46" t="n">
         <v>15863</v>
       </c>
-      <c r="C177" s="48" t="n">
+      <c r="C177" s="46" t="n">
         <v>15997</v>
       </c>
-      <c r="D177" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" s="31" t="s">
-        <v>421</v>
-      </c>
-      <c r="F177" s="27" t="s">
+      <c r="D177" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" s="29" t="s">
         <v>422</v>
       </c>
+      <c r="F177" s="25" t="s">
+        <v>423</v>
+      </c>
       <c r="G177" s="13"/>
-      <c r="H177" s="87" t="n">
+      <c r="H177" s="85" t="n">
         <v>7</v>
       </c>
       <c r="J177" s="8"/>
@@ -11032,26 +11023,26 @@
       <c r="AB177" s="8"/>
     </row>
     <row r="178" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="40" t="s">
-        <v>423</v>
-      </c>
-      <c r="B178" s="48" t="n">
+      <c r="A178" s="38" t="s">
+        <v>424</v>
+      </c>
+      <c r="B178" s="46" t="n">
         <v>18318</v>
       </c>
-      <c r="C178" s="48" t="n">
+      <c r="C178" s="46" t="n">
         <v>18556</v>
       </c>
-      <c r="D178" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E178" s="31" t="s">
-        <v>424</v>
-      </c>
-      <c r="F178" s="27" t="s">
+      <c r="D178" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" s="29" t="s">
         <v>425</v>
       </c>
+      <c r="F178" s="25" t="s">
+        <v>426</v>
+      </c>
       <c r="G178" s="13"/>
-      <c r="H178" s="87" t="n">
+      <c r="H178" s="85" t="n">
         <v>7</v>
       </c>
       <c r="J178" s="8"/>
@@ -11075,26 +11066,26 @@
       <c r="AB178" s="8"/>
     </row>
     <row r="179" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="40" t="s">
-        <v>426</v>
-      </c>
-      <c r="B179" s="48" t="n">
+      <c r="A179" s="38" t="s">
+        <v>427</v>
+      </c>
+      <c r="B179" s="46" t="n">
         <v>18176</v>
       </c>
-      <c r="C179" s="48" t="n">
+      <c r="C179" s="46" t="n">
         <v>18396</v>
       </c>
-      <c r="D179" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E179" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="F179" s="27" t="s">
+      <c r="D179" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" s="29" t="s">
         <v>428</v>
       </c>
+      <c r="F179" s="25" t="s">
+        <v>429</v>
+      </c>
       <c r="G179" s="13"/>
-      <c r="H179" s="87" t="n">
+      <c r="H179" s="85" t="n">
         <v>7</v>
       </c>
       <c r="J179" s="8"/>
@@ -11118,26 +11109,26 @@
       <c r="AB179" s="8"/>
     </row>
     <row r="180" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="B180" s="48" t="n">
+      <c r="A180" s="38" t="s">
+        <v>430</v>
+      </c>
+      <c r="B180" s="46" t="n">
         <v>21587</v>
       </c>
-      <c r="C180" s="48" t="n">
+      <c r="C180" s="46" t="n">
         <v>21813</v>
       </c>
-      <c r="D180" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E180" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="F180" s="27" t="s">
+      <c r="D180" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" s="29" t="s">
         <v>431</v>
       </c>
+      <c r="F180" s="25" t="s">
+        <v>432</v>
+      </c>
       <c r="G180" s="13"/>
-      <c r="H180" s="87" t="n">
+      <c r="H180" s="85" t="n">
         <v>7</v>
       </c>
       <c r="J180" s="8"/>
@@ -11161,26 +11152,26 @@
       <c r="AB180" s="8"/>
     </row>
     <row r="181" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="40" t="s">
-        <v>432</v>
-      </c>
-      <c r="B181" s="48" t="n">
+      <c r="A181" s="38" t="s">
+        <v>433</v>
+      </c>
+      <c r="B181" s="46" t="n">
         <v>21024</v>
       </c>
-      <c r="C181" s="48" t="n">
+      <c r="C181" s="46" t="n">
         <v>21184</v>
       </c>
-      <c r="D181" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E181" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="F181" s="27" t="s">
+      <c r="D181" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" s="29" t="s">
         <v>434</v>
       </c>
+      <c r="F181" s="25" t="s">
+        <v>435</v>
+      </c>
       <c r="G181" s="13"/>
-      <c r="H181" s="87" t="n">
+      <c r="H181" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I181" s="8"/>
@@ -11205,28 +11196,28 @@
       <c r="AB181" s="8"/>
     </row>
     <row r="182" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="B182" s="48" t="n">
+      <c r="A182" s="88" t="s">
+        <v>436</v>
+      </c>
+      <c r="B182" s="46" t="n">
         <v>36395</v>
       </c>
-      <c r="C182" s="48" t="n">
+      <c r="C182" s="46" t="n">
         <v>36950</v>
       </c>
-      <c r="D182" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E182" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="F182" s="27" t="s">
+      <c r="D182" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G182" s="28" t="n">
+      <c r="F182" s="25" t="s">
+        <v>438</v>
+      </c>
+      <c r="G182" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="H182" s="87" t="n">
+      <c r="H182" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I182" s="8"/>
@@ -11251,28 +11242,28 @@
       <c r="AB182" s="8"/>
     </row>
     <row r="183" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="90" t="s">
-        <v>435</v>
-      </c>
-      <c r="B183" s="48" t="n">
+      <c r="A183" s="88" t="s">
+        <v>436</v>
+      </c>
+      <c r="B183" s="46" t="n">
         <v>9760</v>
       </c>
-      <c r="C183" s="48" t="n">
+      <c r="C183" s="46" t="n">
         <v>9890</v>
       </c>
-      <c r="D183" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E183" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="F183" s="27" t="s">
+      <c r="D183" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" s="29" t="s">
         <v>439</v>
       </c>
-      <c r="G183" s="28" t="n">
+      <c r="F183" s="25" t="s">
+        <v>440</v>
+      </c>
+      <c r="G183" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="H183" s="87" t="n">
+      <c r="H183" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I183" s="8"/>
@@ -11297,26 +11288,26 @@
       <c r="AB183" s="8"/>
     </row>
     <row r="184" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="40" t="s">
-        <v>440</v>
-      </c>
-      <c r="B184" s="48" t="n">
+      <c r="A184" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="B184" s="46" t="n">
         <v>89917</v>
       </c>
-      <c r="C184" s="48" t="n">
+      <c r="C184" s="46" t="n">
         <v>90944</v>
       </c>
-      <c r="D184" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E184" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="F184" s="27" t="s">
+      <c r="D184" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" s="29" t="s">
         <v>442</v>
       </c>
+      <c r="F184" s="25" t="s">
+        <v>443</v>
+      </c>
       <c r="G184" s="13"/>
-      <c r="H184" s="87" t="n">
+      <c r="H184" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I184" s="8"/>
@@ -11341,26 +11332,26 @@
       <c r="AB184" s="8"/>
     </row>
     <row r="185" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="B185" s="48" t="n">
+      <c r="A185" s="38" t="s">
+        <v>444</v>
+      </c>
+      <c r="B185" s="46" t="n">
         <v>41921</v>
       </c>
-      <c r="C185" s="48" t="n">
+      <c r="C185" s="46" t="n">
         <v>42368</v>
       </c>
-      <c r="D185" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E185" s="31" t="s">
-        <v>444</v>
-      </c>
-      <c r="F185" s="27" t="s">
+      <c r="D185" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" s="29" t="s">
         <v>445</v>
       </c>
+      <c r="F185" s="25" t="s">
+        <v>446</v>
+      </c>
       <c r="G185" s="13"/>
-      <c r="H185" s="87" t="n">
+      <c r="H185" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I185" s="8"/>
@@ -11385,26 +11376,26 @@
       <c r="AB185" s="8"/>
     </row>
     <row r="186" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="40" t="s">
-        <v>446</v>
-      </c>
-      <c r="B186" s="48" t="n">
+      <c r="A186" s="38" t="s">
+        <v>447</v>
+      </c>
+      <c r="B186" s="46" t="n">
         <v>9452</v>
       </c>
-      <c r="C186" s="48" t="n">
+      <c r="C186" s="46" t="n">
         <v>9525</v>
       </c>
-      <c r="D186" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E186" s="31" t="s">
-        <v>447</v>
-      </c>
-      <c r="F186" s="27" t="s">
+      <c r="D186" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" s="29" t="s">
         <v>448</v>
       </c>
+      <c r="F186" s="25" t="s">
+        <v>449</v>
+      </c>
       <c r="G186" s="13"/>
-      <c r="H186" s="87" t="n">
+      <c r="H186" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I186" s="8"/>
@@ -11429,26 +11420,26 @@
       <c r="AB186" s="8"/>
     </row>
     <row r="187" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="82" t="s">
-        <v>449</v>
-      </c>
-      <c r="B187" s="91" t="n">
+      <c r="A187" s="80" t="s">
+        <v>450</v>
+      </c>
+      <c r="B187" s="89" t="n">
         <v>15474</v>
       </c>
-      <c r="C187" s="91" t="n">
+      <c r="C187" s="89" t="n">
         <v>15474</v>
       </c>
-      <c r="D187" s="91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E187" s="85" t="s">
-        <v>450</v>
-      </c>
-      <c r="F187" s="86" t="s">
+      <c r="D187" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" s="83" t="s">
         <v>451</v>
       </c>
+      <c r="F187" s="84" t="s">
+        <v>452</v>
+      </c>
       <c r="G187" s="13"/>
-      <c r="H187" s="87" t="n">
+      <c r="H187" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I187" s="8"/>
@@ -11473,26 +11464,26 @@
       <c r="AB187" s="8"/>
     </row>
     <row r="188" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="40" t="s">
-        <v>452</v>
-      </c>
-      <c r="B188" s="48" t="n">
+      <c r="A188" s="38" t="s">
+        <v>453</v>
+      </c>
+      <c r="B188" s="46" t="n">
         <v>23920</v>
       </c>
-      <c r="C188" s="48" t="n">
+      <c r="C188" s="46" t="n">
         <v>24401</v>
       </c>
-      <c r="D188" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E188" s="31" t="s">
-        <v>453</v>
-      </c>
-      <c r="F188" s="27" t="s">
+      <c r="D188" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E188" s="29" t="s">
         <v>454</v>
       </c>
+      <c r="F188" s="25" t="s">
+        <v>455</v>
+      </c>
       <c r="G188" s="13"/>
-      <c r="H188" s="87" t="n">
+      <c r="H188" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I188" s="8"/>
@@ -11517,26 +11508,26 @@
       <c r="AB188" s="8"/>
     </row>
     <row r="189" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="B189" s="48" t="n">
+      <c r="A189" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="B189" s="46" t="n">
         <v>11978</v>
       </c>
-      <c r="C189" s="48" t="n">
+      <c r="C189" s="46" t="n">
         <v>13128</v>
       </c>
-      <c r="D189" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E189" s="31" t="s">
-        <v>456</v>
-      </c>
-      <c r="F189" s="27" t="s">
+      <c r="D189" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E189" s="29" t="s">
         <v>457</v>
       </c>
+      <c r="F189" s="25" t="s">
+        <v>458</v>
+      </c>
       <c r="G189" s="13"/>
-      <c r="H189" s="87" t="n">
+      <c r="H189" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I189" s="8"/>
@@ -11561,26 +11552,26 @@
       <c r="AB189" s="8"/>
     </row>
     <row r="190" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="40" t="s">
-        <v>458</v>
-      </c>
-      <c r="B190" s="48" t="n">
+      <c r="A190" s="38" t="s">
+        <v>459</v>
+      </c>
+      <c r="B190" s="46" t="n">
         <v>16819</v>
       </c>
-      <c r="C190" s="48" t="n">
+      <c r="C190" s="46" t="n">
         <v>17071</v>
       </c>
-      <c r="D190" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E190" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="F190" s="27" t="s">
+      <c r="D190" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" s="29" t="s">
         <v>460</v>
       </c>
+      <c r="F190" s="25" t="s">
+        <v>461</v>
+      </c>
       <c r="G190" s="13"/>
-      <c r="H190" s="87" t="n">
+      <c r="H190" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I190" s="8"/>
@@ -11605,26 +11596,26 @@
       <c r="AB190" s="8"/>
     </row>
     <row r="191" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="40" t="s">
-        <v>461</v>
-      </c>
-      <c r="B191" s="48" t="n">
+      <c r="A191" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="B191" s="46" t="n">
         <v>45425</v>
       </c>
-      <c r="C191" s="48" t="n">
+      <c r="C191" s="46" t="n">
         <v>45722</v>
       </c>
-      <c r="D191" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E191" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="F191" s="27" t="s">
+      <c r="D191" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E191" s="29" t="s">
         <v>463</v>
       </c>
+      <c r="F191" s="25" t="s">
+        <v>464</v>
+      </c>
       <c r="G191" s="13"/>
-      <c r="H191" s="87" t="n">
+      <c r="H191" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I191" s="8"/>
@@ -11649,26 +11640,26 @@
       <c r="AB191" s="8"/>
     </row>
     <row r="192" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="40" t="s">
-        <v>464</v>
-      </c>
-      <c r="B192" s="48" t="n">
+      <c r="A192" s="38" t="s">
+        <v>465</v>
+      </c>
+      <c r="B192" s="46" t="n">
         <v>24042</v>
       </c>
-      <c r="C192" s="48" t="n">
+      <c r="C192" s="46" t="n">
         <v>24377</v>
       </c>
-      <c r="D192" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E192" s="31" t="s">
-        <v>465</v>
-      </c>
-      <c r="F192" s="27" t="s">
+      <c r="D192" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" s="29" t="s">
         <v>466</v>
       </c>
+      <c r="F192" s="25" t="s">
+        <v>467</v>
+      </c>
       <c r="G192" s="13"/>
-      <c r="H192" s="87" t="n">
+      <c r="H192" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I192" s="8"/>
@@ -11693,26 +11684,26 @@
       <c r="AB192" s="8"/>
     </row>
     <row r="193" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="40" t="s">
-        <v>467</v>
-      </c>
-      <c r="B193" s="48" t="n">
+      <c r="A193" s="38" t="s">
+        <v>468</v>
+      </c>
+      <c r="B193" s="46" t="n">
         <v>35364</v>
       </c>
-      <c r="C193" s="48" t="n">
+      <c r="C193" s="46" t="n">
         <v>35747</v>
       </c>
-      <c r="D193" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E193" s="31" t="s">
-        <v>468</v>
-      </c>
-      <c r="F193" s="27" t="s">
+      <c r="D193" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" s="29" t="s">
         <v>469</v>
       </c>
+      <c r="F193" s="25" t="s">
+        <v>470</v>
+      </c>
       <c r="G193" s="13"/>
-      <c r="H193" s="87" t="n">
+      <c r="H193" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I193" s="8"/>
@@ -11737,26 +11728,26 @@
       <c r="AB193" s="8"/>
     </row>
     <row r="194" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="82" t="s">
-        <v>470</v>
-      </c>
-      <c r="B194" s="92" t="n">
+      <c r="A194" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="B194" s="90" t="n">
         <v>66445</v>
       </c>
-      <c r="C194" s="92" t="n">
+      <c r="C194" s="90" t="n">
         <v>66445</v>
       </c>
-      <c r="D194" s="91" t="n">
-        <v>1</v>
-      </c>
-      <c r="E194" s="85" t="s">
-        <v>471</v>
-      </c>
-      <c r="F194" s="86" t="s">
+      <c r="D194" s="89" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" s="83" t="s">
         <v>472</v>
       </c>
+      <c r="F194" s="84" t="s">
+        <v>473</v>
+      </c>
       <c r="G194" s="13"/>
-      <c r="H194" s="87" t="n">
+      <c r="H194" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I194" s="8"/>
@@ -11781,26 +11772,26 @@
       <c r="AB194" s="8"/>
     </row>
     <row r="195" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="40" t="s">
-        <v>473</v>
-      </c>
-      <c r="B195" s="36" t="n">
+      <c r="A195" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B195" s="34" t="n">
         <v>74010</v>
       </c>
-      <c r="C195" s="36" t="n">
+      <c r="C195" s="34" t="n">
         <v>75276</v>
       </c>
-      <c r="D195" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E195" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="F195" s="27" t="s">
+      <c r="D195" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E195" s="29" t="s">
         <v>475</v>
       </c>
+      <c r="F195" s="25" t="s">
+        <v>476</v>
+      </c>
       <c r="G195" s="13"/>
-      <c r="H195" s="87" t="n">
+      <c r="H195" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I195" s="8"/>
@@ -11825,26 +11816,26 @@
       <c r="AB195" s="8"/>
     </row>
     <row r="196" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="40" t="s">
-        <v>476</v>
-      </c>
-      <c r="B196" s="48" t="n">
+      <c r="A196" s="38" t="s">
+        <v>477</v>
+      </c>
+      <c r="B196" s="46" t="n">
         <v>59007</v>
       </c>
-      <c r="C196" s="48" t="n">
+      <c r="C196" s="46" t="n">
         <v>59894</v>
       </c>
-      <c r="D196" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="E196" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="F196" s="27" t="s">
+      <c r="D196" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" s="29" t="s">
         <v>478</v>
       </c>
+      <c r="F196" s="25" t="s">
+        <v>479</v>
+      </c>
       <c r="G196" s="13"/>
-      <c r="H196" s="87" t="n">
+      <c r="H196" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I196" s="8"/>
@@ -11869,26 +11860,26 @@
       <c r="AB196" s="8"/>
     </row>
     <row r="197" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="40" t="s">
-        <v>479</v>
-      </c>
-      <c r="B197" s="48" t="n">
+      <c r="A197" s="38" t="s">
+        <v>480</v>
+      </c>
+      <c r="B197" s="46" t="n">
         <v>43134</v>
       </c>
-      <c r="C197" s="48" t="n">
+      <c r="C197" s="46" t="n">
         <v>44547</v>
       </c>
-      <c r="D197" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E197" s="31" t="s">
-        <v>480</v>
-      </c>
-      <c r="F197" s="27" t="s">
+      <c r="D197" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E197" s="29" t="s">
         <v>481</v>
       </c>
+      <c r="F197" s="25" t="s">
+        <v>482</v>
+      </c>
       <c r="G197" s="13"/>
-      <c r="H197" s="87" t="n">
+      <c r="H197" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I197" s="8"/>
@@ -11913,26 +11904,26 @@
       <c r="AB197" s="8"/>
     </row>
     <row r="198" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="40" t="s">
-        <v>482</v>
-      </c>
-      <c r="B198" s="48" t="n">
+      <c r="A198" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="B198" s="46" t="n">
         <v>55734</v>
       </c>
-      <c r="C198" s="48" t="n">
+      <c r="C198" s="46" t="n">
         <v>56320</v>
       </c>
-      <c r="D198" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="31" t="s">
-        <v>483</v>
-      </c>
-      <c r="F198" s="27" t="s">
+      <c r="D198" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="29" t="s">
         <v>484</v>
       </c>
+      <c r="F198" s="25" t="s">
+        <v>485</v>
+      </c>
       <c r="G198" s="13"/>
-      <c r="H198" s="87" t="n">
+      <c r="H198" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I198" s="8"/>
@@ -11957,26 +11948,26 @@
       <c r="AB198" s="8"/>
     </row>
     <row r="199" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="B199" s="48" t="n">
+      <c r="A199" s="38" t="s">
+        <v>486</v>
+      </c>
+      <c r="B199" s="46" t="n">
         <v>178128</v>
       </c>
-      <c r="C199" s="48" t="n">
+      <c r="C199" s="46" t="n">
         <v>179028</v>
       </c>
-      <c r="D199" s="48" t="n">
-        <v>1</v>
-      </c>
-      <c r="E199" s="31" t="s">
-        <v>486</v>
-      </c>
-      <c r="F199" s="27" t="s">
+      <c r="D199" s="46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" s="29" t="s">
         <v>487</v>
       </c>
+      <c r="F199" s="25" t="s">
+        <v>488</v>
+      </c>
       <c r="G199" s="13"/>
-      <c r="H199" s="87" t="n">
+      <c r="H199" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I199" s="8"/>
@@ -12001,26 +11992,26 @@
       <c r="AB199" s="8"/>
     </row>
     <row r="200" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="40" t="s">
-        <v>488</v>
-      </c>
-      <c r="B200" s="36" t="n">
+      <c r="A200" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="B200" s="34" t="n">
         <v>58000</v>
       </c>
-      <c r="C200" s="36" t="n">
+      <c r="C200" s="34" t="n">
         <v>58716</v>
       </c>
-      <c r="D200" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E200" s="31" t="s">
-        <v>489</v>
-      </c>
-      <c r="F200" s="27" t="s">
+      <c r="D200" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" s="29" t="s">
         <v>490</v>
       </c>
+      <c r="F200" s="25" t="s">
+        <v>491</v>
+      </c>
       <c r="G200" s="13"/>
-      <c r="H200" s="87" t="n">
+      <c r="H200" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I200" s="8"/>
@@ -12045,26 +12036,26 @@
       <c r="AB200" s="8"/>
     </row>
     <row r="201" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="40" t="s">
-        <v>491</v>
-      </c>
-      <c r="B201" s="36" t="n">
+      <c r="A201" s="38" t="s">
+        <v>492</v>
+      </c>
+      <c r="B201" s="34" t="n">
         <v>33298</v>
       </c>
-      <c r="C201" s="36" t="n">
+      <c r="C201" s="34" t="n">
         <v>33637</v>
       </c>
-      <c r="D201" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E201" s="31" t="s">
-        <v>492</v>
-      </c>
-      <c r="F201" s="27" t="s">
+      <c r="D201" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E201" s="29" t="s">
         <v>493</v>
       </c>
+      <c r="F201" s="25" t="s">
+        <v>494</v>
+      </c>
       <c r="G201" s="13"/>
-      <c r="H201" s="87" t="n">
+      <c r="H201" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I201" s="8"/>
@@ -12089,26 +12080,26 @@
       <c r="AB201" s="8"/>
     </row>
     <row r="202" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="40" t="s">
-        <v>494</v>
-      </c>
-      <c r="B202" s="36" t="n">
+      <c r="A202" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B202" s="34" t="n">
         <v>16753</v>
       </c>
-      <c r="C202" s="36" t="n">
+      <c r="C202" s="34" t="n">
         <v>17047</v>
       </c>
-      <c r="D202" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E202" s="31" t="s">
-        <v>495</v>
-      </c>
-      <c r="F202" s="27" t="s">
+      <c r="D202" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" s="29" t="s">
         <v>496</v>
       </c>
+      <c r="F202" s="25" t="s">
+        <v>497</v>
+      </c>
       <c r="G202" s="13"/>
-      <c r="H202" s="87" t="n">
+      <c r="H202" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I202" s="8"/>
@@ -12133,26 +12124,26 @@
       <c r="AB202" s="8"/>
     </row>
     <row r="203" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="40" t="s">
-        <v>497</v>
-      </c>
-      <c r="B203" s="36" t="n">
+      <c r="A203" s="38" t="s">
+        <v>498</v>
+      </c>
+      <c r="B203" s="34" t="n">
         <v>242539</v>
       </c>
-      <c r="C203" s="36" t="n">
+      <c r="C203" s="34" t="n">
         <v>243501</v>
       </c>
-      <c r="D203" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E203" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="F203" s="27" t="s">
+      <c r="D203" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" s="29" t="s">
         <v>499</v>
       </c>
+      <c r="F203" s="25" t="s">
+        <v>500</v>
+      </c>
       <c r="G203" s="13"/>
-      <c r="H203" s="87" t="n">
+      <c r="H203" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I203" s="8"/>
@@ -12177,26 +12168,26 @@
       <c r="AB203" s="8"/>
     </row>
     <row r="204" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="40" t="s">
-        <v>500</v>
-      </c>
-      <c r="B204" s="36" t="n">
+      <c r="A204" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B204" s="34" t="n">
         <v>43048</v>
       </c>
-      <c r="C204" s="36" t="n">
+      <c r="C204" s="34" t="n">
         <v>43618</v>
       </c>
-      <c r="D204" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E204" s="31" t="s">
-        <v>501</v>
-      </c>
-      <c r="F204" s="27" t="s">
+      <c r="D204" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" s="29" t="s">
         <v>502</v>
       </c>
+      <c r="F204" s="25" t="s">
+        <v>503</v>
+      </c>
       <c r="G204" s="13"/>
-      <c r="H204" s="87" t="n">
+      <c r="H204" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I204" s="8"/>
@@ -12221,28 +12212,28 @@
       <c r="AB204" s="8"/>
     </row>
     <row r="205" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="88" t="s">
-        <v>503</v>
-      </c>
-      <c r="B205" s="36" t="n">
+      <c r="A205" s="86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B205" s="34" t="n">
         <v>33074</v>
       </c>
-      <c r="C205" s="36" t="n">
+      <c r="C205" s="34" t="n">
         <v>34620</v>
       </c>
-      <c r="D205" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E205" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="F205" s="27" t="s">
+      <c r="D205" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E205" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="G205" s="28" t="n">
+      <c r="F205" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="G205" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="H205" s="87" t="n">
+      <c r="H205" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I205" s="8"/>
@@ -12267,28 +12258,28 @@
       <c r="AB205" s="8"/>
     </row>
     <row r="206" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="88" t="s">
-        <v>503</v>
-      </c>
-      <c r="B206" s="36" t="n">
+      <c r="A206" s="86" t="s">
+        <v>504</v>
+      </c>
+      <c r="B206" s="34" t="n">
         <v>23462</v>
       </c>
-      <c r="C206" s="36" t="n">
+      <c r="C206" s="34" t="n">
         <v>25237</v>
       </c>
-      <c r="D206" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E206" s="31" t="s">
+      <c r="D206" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="F206" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="F206" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="G206" s="28" t="n">
+      <c r="G206" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="H206" s="87" t="n">
+      <c r="H206" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I206" s="8"/>
@@ -12313,26 +12304,26 @@
       <c r="AB206" s="8"/>
     </row>
     <row r="207" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="40" t="s">
-        <v>507</v>
-      </c>
-      <c r="B207" s="36" t="n">
+      <c r="A207" s="38" t="s">
+        <v>508</v>
+      </c>
+      <c r="B207" s="34" t="n">
         <v>92668</v>
       </c>
-      <c r="C207" s="36" t="n">
+      <c r="C207" s="34" t="n">
         <v>100086</v>
       </c>
-      <c r="D207" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E207" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="F207" s="27" t="s">
+      <c r="D207" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E207" s="29" t="s">
         <v>509</v>
       </c>
+      <c r="F207" s="25" t="s">
+        <v>510</v>
+      </c>
       <c r="G207" s="13"/>
-      <c r="H207" s="87" t="n">
+      <c r="H207" s="85" t="n">
         <v>7</v>
       </c>
       <c r="I207" s="8"/>
@@ -12357,30 +12348,30 @@
       <c r="AB207" s="8"/>
     </row>
     <row r="208" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="40" t="s">
-        <v>510</v>
-      </c>
-      <c r="B208" s="36" t="n">
+      <c r="A208" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="B208" s="34" t="n">
         <v>64667</v>
       </c>
-      <c r="C208" s="36" t="n">
+      <c r="C208" s="34" t="n">
         <v>65410</v>
       </c>
-      <c r="D208" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E208" s="31" t="s">
-        <v>511</v>
-      </c>
-      <c r="F208" s="27" t="s">
+      <c r="D208" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" s="29" t="s">
         <v>512</v>
       </c>
+      <c r="F208" s="25" t="s">
+        <v>513</v>
+      </c>
       <c r="G208" s="13"/>
-      <c r="H208" s="87" t="n">
+      <c r="H208" s="85" t="n">
         <v>7</v>
       </c>
-      <c r="I208" s="15" t="s">
-        <v>416</v>
+      <c r="I208" s="8" t="s">
+        <v>417</v>
       </c>
       <c r="J208" s="8"/>
       <c r="K208" s="8"/>
@@ -12433,30 +12424,30 @@
       <c r="AB209" s="8"/>
     </row>
     <row r="210" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="35" t="s">
-        <v>513</v>
-      </c>
-      <c r="B210" s="36" t="n">
+      <c r="A210" s="33" t="s">
+        <v>514</v>
+      </c>
+      <c r="B210" s="34" t="n">
         <v>40097</v>
       </c>
-      <c r="C210" s="36" t="n">
+      <c r="C210" s="34" t="n">
         <v>41961</v>
       </c>
-      <c r="D210" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E210" s="31" t="n">
+      <c r="D210" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" s="29" t="n">
         <v>3275</v>
       </c>
-      <c r="F210" s="27" t="s">
-        <v>514</v>
+      <c r="F210" s="25" t="s">
+        <v>515</v>
       </c>
       <c r="G210" s="13"/>
-      <c r="H210" s="93" t="n">
+      <c r="H210" s="91" t="n">
         <v>2</v>
       </c>
-      <c r="I210" s="94" t="s">
-        <v>515</v>
+      <c r="I210" s="92" t="s">
+        <v>516</v>
       </c>
       <c r="J210" s="8"/>
       <c r="K210" s="8"/>
@@ -12509,30 +12500,30 @@
       <c r="AB211" s="8"/>
     </row>
     <row r="212" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="35" t="s">
-        <v>516</v>
-      </c>
-      <c r="B212" s="36" t="n">
+      <c r="A212" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="B212" s="34" t="n">
         <v>185319</v>
       </c>
-      <c r="C212" s="36" t="n">
+      <c r="C212" s="34" t="n">
         <v>186733</v>
       </c>
-      <c r="D212" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E212" s="31" t="n">
+      <c r="D212" s="35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" s="29" t="n">
         <v>3868</v>
       </c>
-      <c r="F212" s="27" t="s">
-        <v>517</v>
+      <c r="F212" s="25" t="s">
+        <v>518</v>
       </c>
       <c r="G212" s="13"/>
-      <c r="H212" s="93" t="n">
+      <c r="H212" s="91" t="n">
         <v>3</v>
       </c>
-      <c r="I212" s="15" t="s">
-        <v>518</v>
+      <c r="I212" s="8" t="s">
+        <v>519</v>
       </c>
       <c r="J212" s="8"/>
       <c r="K212" s="8"/>
@@ -19443,180 +19434,180 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="1" sqref="G205:G206 C3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="34.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="36.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="95" t="s">
-        <v>519</v>
-      </c>
-      <c r="B1" s="95" t="s">
+      <c r="A1" s="93" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="96" t="s">
-        <v>520</v>
-      </c>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97" t="s">
+      <c r="C1" s="94" t="s">
         <v>521</v>
       </c>
-      <c r="F1" s="97"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
+        <v>522</v>
+      </c>
+      <c r="F1" s="95"/>
     </row>
     <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="98" t="s">
-        <v>522</v>
-      </c>
-      <c r="D2" s="98" t="s">
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="96" t="s">
         <v>523</v>
       </c>
-      <c r="E2" s="99" t="s">
-        <v>522</v>
-      </c>
-      <c r="F2" s="99" t="s">
+      <c r="D2" s="96" t="s">
+        <v>524</v>
+      </c>
+      <c r="E2" s="97" t="s">
         <v>523</v>
       </c>
+      <c r="F2" s="97" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="27" t="s">
+      <c r="A3" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="C3" s="36" t="n">
+      <c r="B3" s="25" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="34" t="n">
         <v>74010</v>
       </c>
-      <c r="D3" s="36" t="n">
+      <c r="D3" s="34" t="n">
         <v>75276</v>
       </c>
-      <c r="E3" s="48" t="n">
+      <c r="E3" s="46" t="n">
         <v>59007</v>
       </c>
-      <c r="F3" s="48" t="n">
+      <c r="F3" s="46" t="n">
         <v>59894</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>477</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="C4" s="48" t="n">
+      <c r="B4" s="25" t="s">
+        <v>479</v>
+      </c>
+      <c r="C4" s="46" t="n">
         <v>59007</v>
       </c>
-      <c r="D4" s="48" t="n">
+      <c r="D4" s="46" t="n">
         <v>59894</v>
       </c>
-      <c r="E4" s="36" t="n">
+      <c r="E4" s="34" t="n">
         <v>74010</v>
       </c>
-      <c r="F4" s="36" t="n">
+      <c r="F4" s="34" t="n">
         <v>75276</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
     </row>
     <row r="6" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="29" t="s">
         <v>505</v>
       </c>
-      <c r="C6" s="36" t="n">
+      <c r="B6" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="C6" s="34" t="n">
         <v>33074</v>
       </c>
-      <c r="D6" s="36" t="n">
+      <c r="D6" s="34" t="n">
         <v>34620</v>
       </c>
-      <c r="E6" s="36" t="n">
+      <c r="E6" s="34" t="n">
         <v>23462</v>
       </c>
-      <c r="F6" s="36" t="n">
+      <c r="F6" s="34" t="n">
         <v>25237</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="29" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" s="36" t="n">
+      <c r="C7" s="34" t="n">
         <v>23462</v>
       </c>
-      <c r="D7" s="36" t="n">
+      <c r="D7" s="34" t="n">
         <v>25237</v>
       </c>
-      <c r="E7" s="36" t="n">
+      <c r="E7" s="34" t="n">
         <v>33074</v>
       </c>
-      <c r="F7" s="36" t="n">
+      <c r="F7" s="34" t="n">
         <v>34620</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
     </row>
     <row r="9" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="72" t="n">
+      <c r="A9" s="70" t="n">
         <v>3855</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="C9" s="89" t="n">
+      <c r="B9" s="25" t="s">
+        <v>419</v>
+      </c>
+      <c r="C9" s="87" t="n">
         <v>50395</v>
       </c>
-      <c r="D9" s="89" t="n">
+      <c r="D9" s="87" t="n">
         <v>50728</v>
       </c>
-      <c r="E9" s="89" t="n">
+      <c r="E9" s="87" t="n">
         <v>113898</v>
       </c>
-      <c r="F9" s="89" t="n">
+      <c r="F9" s="87" t="n">
         <v>116620</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="B10" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="C10" s="89" t="n">
+      <c r="C10" s="87" t="n">
         <v>113898</v>
       </c>
-      <c r="D10" s="89" t="n">
+      <c r="D10" s="87" t="n">
         <v>116620</v>
       </c>
-      <c r="E10" s="89" t="n">
+      <c r="E10" s="87" t="n">
         <v>50395</v>
       </c>
-      <c r="F10" s="89" t="n">
+      <c r="F10" s="87" t="n">
         <v>50728</v>
       </c>
     </row>
@@ -19629,7 +19620,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
